--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -158,7 +158,7 @@
     <t>Fulfilment or performance of a contract involving specified processing</t>
   </si>
   <si>
-    <t>Georg P Krog, Harshvardhan J. Pandit, Paul Ryan</t>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan</t>
   </si>
   <si>
     <t>DataTransferLegalBasis</t>
@@ -170,7 +170,7 @@
     <t>Specific or special categories and instances of legal basis intended for justifying data transfers</t>
   </si>
   <si>
-    <t>David Hickey, Georg P Krogg</t>
+    <t>David Hickey, Georg P. Krog</t>
   </si>
   <si>
     <t>https://www.w3.org/2021/09/08-dpvcg-minutes.html</t>
@@ -236,7 +236,7 @@
     <t>Legitimate Interests of the Data Subject in conducting specified processing</t>
   </si>
   <si>
-    <t>Georg P Krog</t>
+    <t>Georg P. Krog</t>
   </si>
   <si>
     <t>OfficialAuthorityOfController</t>
@@ -359,7 +359,7 @@
     <t>dpv:Consent</t>
   </si>
   <si>
-    <t>Georg P Krog, Harshvardhan J. Pandit, Paul Ryan, Julian Flake</t>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan, Julian Flake</t>
   </si>
   <si>
     <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
@@ -1957,7 +1957,7 @@
       <c r="M9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O9" s="23" t="s">
@@ -2059,7 +2059,7 @@
       <c r="M11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="23" t="s">
@@ -2211,7 +2211,7 @@
       <c r="M14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O14" s="23" t="s">
@@ -2263,7 +2263,7 @@
       <c r="M15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="23" t="s">
@@ -2363,7 +2363,7 @@
       <c r="M17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O17" s="23" t="s">
@@ -2515,7 +2515,7 @@
       <c r="M20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O20" s="23" t="s">
@@ -2567,7 +2567,7 @@
       <c r="M21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="18" t="s">
         <v>47</v>
       </c>
       <c r="O21" s="23" t="s">

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -7,7 +7,8 @@
     <sheet state="visible" name="LegalBasis_properties" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ConsentTypes" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ConsentStatus" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Consent_properties" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ConsentControls" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Consent_properties" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="291">
   <si>
     <t>Term</t>
   </si>
@@ -347,6 +348,42 @@
     <t>Axel Polleres, Javier Fernández</t>
   </si>
   <si>
+    <t>isIndicatedBy</t>
+  </si>
+  <si>
+    <t>is indicated by</t>
+  </si>
+  <si>
+    <t>Specifies entity who indicates the specific context</t>
+  </si>
+  <si>
+    <t>dpv:Entity</t>
+  </si>
+  <si>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan, Julian Flake</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>hasIndicationMethod</t>
+  </si>
+  <si>
+    <t>has indication method</t>
+  </si>
+  <si>
+    <t>Specifies the method by which an entity has indicated the specific context</t>
+  </si>
+  <si>
+    <t>isIndicatedAtTime</t>
+  </si>
+  <si>
+    <t>is indicated at time</t>
+  </si>
+  <si>
+    <t>Specifies the temporal information for when the entity has indicated the specific context</t>
+  </si>
+  <si>
     <t>UninformedConsent</t>
   </si>
   <si>
@@ -357,12 +394,6 @@
   </si>
   <si>
     <t>dpv:Consent</t>
-  </si>
-  <si>
-    <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan, Julian Flake</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
   </si>
   <si>
     <t>InformedConsent</t>
@@ -802,34 +833,70 @@
     </r>
   </si>
   <si>
-    <t>isIndicatedBy</t>
-  </si>
-  <si>
-    <t>is indicated by</t>
-  </si>
-  <si>
-    <t>Specifies entity who indicates the specific context</t>
-  </si>
-  <si>
-    <t>dpv:Entity</t>
-  </si>
-  <si>
-    <t>hasIndicationMethod</t>
-  </si>
-  <si>
-    <t>has indication method</t>
-  </si>
-  <si>
-    <t>Specifies the method by which an entity has indicated the specific context</t>
-  </si>
-  <si>
-    <t>isIndicatedAtTime</t>
-  </si>
-  <si>
-    <t>is indicated at time</t>
-  </si>
-  <si>
-    <t>Specifies the temporal information for when the entity has indicated the specific context</t>
+    <t>ConsentControl</t>
+  </si>
+  <si>
+    <t>The control or activity associated with obtaining, providing, withdrawing, or reaffirming consent</t>
+  </si>
+  <si>
+    <t>dpv:EntityInvolvement</t>
+  </si>
+  <si>
+    <t>ObtainConsent</t>
+  </si>
+  <si>
+    <t>Obtain Consent</t>
+  </si>
+  <si>
+    <t>Control for obtaining consent</t>
+  </si>
+  <si>
+    <t>dpv:ConsentControl</t>
+  </si>
+  <si>
+    <t>Indicates how the controller or entity can obtain consent e.g. used with dpv:isExercisedAt</t>
+  </si>
+  <si>
+    <t>ProvideConsent</t>
+  </si>
+  <si>
+    <t>Provide Consent</t>
+  </si>
+  <si>
+    <t>Control for providing consent</t>
+  </si>
+  <si>
+    <t>dpv:ConsentControl,dpv:OptingIntoProcess</t>
+  </si>
+  <si>
+    <t>Indicates how the data subject can provide consent e.g. used with dpv:isExercisedAt</t>
+  </si>
+  <si>
+    <t>WithdrawConsent</t>
+  </si>
+  <si>
+    <t>Withdraw Consent</t>
+  </si>
+  <si>
+    <t>Control for withdrawing consent</t>
+  </si>
+  <si>
+    <t>dpv:ConsentControl,dpv:WithdrawingFromProcess</t>
+  </si>
+  <si>
+    <t>Indicates how the data subject can withdraw consent e.g. used with dpv:isExercisedAt</t>
+  </si>
+  <si>
+    <t>ReaffirmConsent</t>
+  </si>
+  <si>
+    <t>Reaffirm Consent</t>
+  </si>
+  <si>
+    <t>Control for affirming consent</t>
+  </si>
+  <si>
+    <t>Indicates how the controller (with dpv:ObtainConsent) or data subject (with dpv:ProvideConsent) can reaffirm consent e.g. used with dpv:isExercisedAt</t>
   </si>
   <si>
     <t>hasConsentStatus</t>
@@ -839,6 +906,15 @@
   </si>
   <si>
     <t>Specifies the state or status of consent</t>
+  </si>
+  <si>
+    <t>hasConsentControl</t>
+  </si>
+  <si>
+    <t>has consent control</t>
+  </si>
+  <si>
+    <t>Specific a control associated with consent</t>
   </si>
   <si>
     <t xml:space="preserve">Deprecated </t>
@@ -1145,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1234,6 +1310,9 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1281,24 +1360,24 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE06666"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
       <border/>
@@ -1324,6 +1403,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2834,26 +2917,184 @@
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
     </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="22">
+        <v>44733.0</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="22">
+        <v>44733.0</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22">
+        <v>44733.0</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:AB5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M3="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:AB5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M3="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:AB5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M3="sunset"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:AB2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB24">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="A2:AB2 A6:AB24">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB24">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:AB2 A6:AB24">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="O2"/>
+    <hyperlink r:id="rId2" ref="O3"/>
+    <hyperlink r:id="rId3" ref="O4"/>
+    <hyperlink r:id="rId4" ref="O5"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2919,16 +3160,16 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>25</v>
@@ -2967,16 +3208,16 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>25</v>
@@ -2985,7 +3226,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="18" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="22">
@@ -3017,16 +3258,16 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>25</v>
@@ -3035,7 +3276,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="22">
@@ -3067,16 +3308,16 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>25</v>
@@ -3085,7 +3326,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="18" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="22">
@@ -3117,16 +3358,16 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>25</v>
@@ -3135,7 +3376,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="22">
@@ -3249,29 +3490,29 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K2" s="22">
         <v>44734.0</v>
@@ -3302,26 +3543,26 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K3" s="22">
         <v>44734.0</v>
@@ -3352,26 +3593,26 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K4" s="22">
         <v>44734.0</v>
@@ -3402,29 +3643,29 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B5" s="18" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="18" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K5" s="22">
         <v>44734.0</v>
@@ -3455,29 +3696,29 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="18" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="K6" s="22">
         <v>44734.0</v>
@@ -3508,28 +3749,28 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="18" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K7" s="22">
         <v>44734.0</v>
@@ -3560,28 +3801,28 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="18" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K8" s="22">
         <v>44734.0</v>
@@ -3612,28 +3853,28 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K9" s="22">
         <v>44734.0</v>
@@ -3664,28 +3905,28 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="18" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K10" s="22">
         <v>44734.0</v>
@@ -3716,28 +3957,28 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="18" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K11" s="22">
         <v>44734.0</v>
@@ -3768,28 +4009,28 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K12" s="22">
         <v>44734.0</v>
@@ -3820,28 +4061,28 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="18" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K13" s="22">
         <v>44734.0</v>
@@ -3872,28 +4113,28 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="18" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K14" s="22">
         <v>44734.0</v>
@@ -3975,10 +4216,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.63"/>
-    <col customWidth="1" min="3" max="3" width="31.63"/>
-    <col customWidth="1" min="4" max="4" width="15.88"/>
-    <col customWidth="1" min="5" max="5" width="13.88"/>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -3992,13 +4230,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4006,14 +4244,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>11</v>
@@ -4030,38 +4268,35 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>202</v>
+        <v>211</v>
+      </c>
+      <c r="B2" s="18" t="str">
+        <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
+        <v>Consent Control</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="22">
-        <v>44733.0</v>
+        <v>45423.0</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
@@ -4078,36 +4313,36 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="20"/>
+        <v>217</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="30"/>
       <c r="K3" s="22">
-        <v>44733.0</v>
+        <v>45423.0</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -4124,36 +4359,36 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="30"/>
       <c r="K4" s="22">
-        <v>44733.0</v>
+        <v>45423.0</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -4170,38 +4405,36 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="30"/>
       <c r="K5" s="22">
-        <v>44733.0</v>
+        <v>45423.0</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
@@ -4217,468 +4450,693 @@
       <c r="AB5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="22">
+        <v>45423.0</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="K9" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L9" s="32">
-        <v>44899.0</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L11" s="32">
-        <v>44899.0</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="C12" s="25"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L13" s="32">
-        <v>44899.0</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="K14" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="K15" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L15" s="32">
-        <v>44899.0</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="K16" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="K17" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L17" s="32">
-        <v>44899.0</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="K18" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="K19" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>44899.0</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="K20" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB20">
+  <conditionalFormatting sqref="A2:AB100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB20">
+  <conditionalFormatting sqref="A2:AB100">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB88">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="15.63"/>
+    <col customWidth="1" min="3" max="3" width="31.63"/>
+    <col customWidth="1" min="4" max="4" width="15.88"/>
+    <col customWidth="1" min="5" max="5" width="13.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="22">
+        <v>44733.0</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="22">
+        <v>45423.0</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L9" s="33">
+        <v>44899.0</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>44899.0</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>44899.0</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>44899.0</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L17" s="33">
+        <v>44899.0</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>44899.0</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="K20" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>44899.0</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AB2 A6:AB20">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB2 A6:AB20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB2 A6:AB88">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="sunset"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="O2"/>
-    <hyperlink r:id="rId2" ref="O3"/>
-    <hyperlink r:id="rId3" ref="O4"/>
-    <hyperlink r:id="rId4" ref="O5"/>
-    <hyperlink r:id="rId5" ref="O8"/>
-    <hyperlink r:id="rId6" ref="O9"/>
-    <hyperlink r:id="rId7" ref="O10"/>
-    <hyperlink r:id="rId8" ref="O11"/>
-    <hyperlink r:id="rId9" ref="O12"/>
-    <hyperlink r:id="rId10" ref="O13"/>
-    <hyperlink r:id="rId11" ref="O14"/>
-    <hyperlink r:id="rId12" ref="O15"/>
-    <hyperlink r:id="rId13" ref="O16"/>
-    <hyperlink r:id="rId14" ref="O17"/>
-    <hyperlink r:id="rId15" ref="O18"/>
-    <hyperlink r:id="rId16" ref="O19"/>
-    <hyperlink r:id="rId17" ref="O20"/>
+    <hyperlink r:id="rId2" ref="O8"/>
+    <hyperlink r:id="rId3" ref="O9"/>
+    <hyperlink r:id="rId4" ref="O10"/>
+    <hyperlink r:id="rId5" ref="O11"/>
+    <hyperlink r:id="rId6" ref="O12"/>
+    <hyperlink r:id="rId7" ref="O13"/>
+    <hyperlink r:id="rId8" ref="O14"/>
+    <hyperlink r:id="rId9" ref="O15"/>
+    <hyperlink r:id="rId10" ref="O16"/>
+    <hyperlink r:id="rId11" ref="O17"/>
+    <hyperlink r:id="rId12" ref="O18"/>
+    <hyperlink r:id="rId13" ref="O19"/>
+    <hyperlink r:id="rId14" ref="O20"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -90,7 +90,7 @@
     <t>Consent</t>
   </si>
   <si>
-    <t>Consent of the Data Subject for specified processing</t>
+    <t>Consent of the Data Subject for specified process or activity</t>
   </si>
   <si>
     <t>dpv:LegalBasis</t>
@@ -117,7 +117,7 @@
     <t>Data Subject Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Subject as parties, and involving specified processing</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Subject as parties, and involving specified processing of data or technologies</t>
   </si>
   <si>
     <t>dpv:Contract</t>
@@ -129,7 +129,7 @@
     <t>Data Processor Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Processor as parties, and involving specified processing</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Processor as parties, and involving specified processing of data or technologies</t>
   </si>
   <si>
     <t>DataControllerContract</t>
@@ -138,7 +138,7 @@
     <t>Data Controller Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with Data Controllers as parties being Joint Data Controllers, and involving specified processing</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with Data Controllers as parties being Joint Data Controllers, and involving specified processing of data or technologies</t>
   </si>
   <si>
     <t>ThirdPartyContract</t>
@@ -147,7 +147,7 @@
     <t>Third Party Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Third Party as parties, and involving specified processing</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Third Party as parties, and involving specified processing of data or technologies</t>
   </si>
   <si>
     <t>ContractPerformance</t>
@@ -156,7 +156,7 @@
     <t>Contract Performance</t>
   </si>
   <si>
-    <t>Fulfilment or performance of a contract involving specified processing</t>
+    <t>Fulfilment or performance of a contract involving specified processing of data or technologies</t>
   </si>
   <si>
     <t>Georg P. Krog, Harshvardhan J. Pandit, Paul Ryan</t>
@@ -192,7 +192,7 @@
     <t>Legal Obligation</t>
   </si>
   <si>
-    <t>Legal Obligation to conduct the specified processing</t>
+    <t>Legal Obligation to conduct the specified activities</t>
   </si>
   <si>
     <t>LegitimateInterest</t>
@@ -201,7 +201,7 @@
     <t>Legitimate Interest</t>
   </si>
   <si>
-    <t>Legitimate Interests of a Party as justification for specified processing</t>
+    <t>Legitimate Interests of a Party as justification for specified activities</t>
   </si>
   <si>
     <t>https://www.w3.org/2021/05/19-dpvcg-minutes.html</t>
@@ -213,7 +213,7 @@
     <t>Legitimate Interest of Controller</t>
   </si>
   <si>
-    <t>Legitimate Interests of a Data Controller in conducting specified processing</t>
+    <t>Legitimate Interests of a Data Controller in conducting specified activities</t>
   </si>
   <si>
     <t>dpv:LegitimateInterest</t>
@@ -225,7 +225,7 @@
     <t>Legitimate Interest of Third Party</t>
   </si>
   <si>
-    <t>Legitimate Interests of a Third Party in conducting specified processing</t>
+    <t>Legitimate Interests of a Third Party in conducting specified activities</t>
   </si>
   <si>
     <t>LegitimateInterestOfDataSubject</t>
@@ -234,7 +234,7 @@
     <t>Legitimate Interest of Data Subject</t>
   </si>
   <si>
-    <t>Legitimate Interests of the Data Subject in conducting specified processing</t>
+    <t>Legitimate Interests of the Data Subject in conducting specified activities</t>
   </si>
   <si>
     <t>Georg P. Krog</t>
@@ -246,7 +246,7 @@
     <t>Official Authority of Controller</t>
   </si>
   <si>
-    <t>Processing necessary or authorised through the official authority granted to or vested in the Data Controller</t>
+    <t>Activities are necessary or authorised through the official authority granted to or vested in the Data Controller</t>
   </si>
   <si>
     <t>https://www.w3.org/2021/05/05-dpvcg-minutes.html</t>
@@ -258,7 +258,7 @@
     <t>Public Interest</t>
   </si>
   <si>
-    <t>Processing is necessary or beneficial for interest of the public or society at large</t>
+    <t>Activities are necessary or beneficial for interest of the public or society at large</t>
   </si>
   <si>
     <t>https://www.w3.org/2021/04/21-dpvcg-minutes.html</t>
@@ -270,7 +270,7 @@
     <t>Vital Interest</t>
   </si>
   <si>
-    <t>Processing is necessary or required to protect vital interests of a data subject or other natural person</t>
+    <t>Activities are necessary or required to protect vital interests of a data subject or other natural person</t>
   </si>
   <si>
     <t>VitalInterestOfDataSubject</t>
@@ -279,7 +279,7 @@
     <t>Vital Interest of Data Subject</t>
   </si>
   <si>
-    <t>Processing is necessary or required to protect vital interests of a data subject</t>
+    <t>Activities are necessary or required to protect vital interests of a data subject</t>
   </si>
   <si>
     <t>dpv:VitalInterestOfNaturalPerson</t>
@@ -291,7 +291,7 @@
     <t>Vital Interest of Natural Person</t>
   </si>
   <si>
-    <t>Processing is necessary or required to protect vital interests of a natural person</t>
+    <t>Activities are necessary or required to protect vital interests of a natural person</t>
   </si>
   <si>
     <t>dpv:VitalInterest</t>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -432,7 +432,7 @@
     <t>Consent that is expressed through an action intended to convey a consenting decision</t>
   </si>
   <si>
-    <t>Expressed consent requires the individual take a specific and unambigious action that directly indicates their consent. This action may be a part of other processes such as setting preferences, or agreeing to a contract, or other matters not relating to consent. An example of expressed consent is interacting with a checkbox within a dashboard or clicking a button on a web form</t>
+    <t>Expressed consent requires the individual take a specific and unambiguous action that directly indicates their consent. This action may be a part of other processes such as setting preferences, or agreeing to a contract, or other matters not relating to consent. An example of expressed consent is interacting with a checkbox within a dashboard or clicking a button on a web form</t>
   </si>
   <si>
     <t>ExplicitlyExpressedConsent</t>
@@ -990,7 +990,7 @@
     <t>has withdrawal method</t>
   </si>
   <si>
-    <t>Specifries the method by which consent can be/has been withdrawn</t>
+    <t>Specifies the method by which consent can be/has been withdrawn</t>
   </si>
   <si>
     <t>hasWithdrawalTime</t>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -866,7 +866,7 @@
     <t>Control for providing consent</t>
   </si>
   <si>
-    <t>dpv:ConsentControl,dpv:OptingIntoProcess</t>
+    <t>dpv:ConsentControl,dpv:OptingInToProcess</t>
   </si>
   <si>
     <t>Indicates how the data subject can provide consent e.g. used with dpv:isExercisedAt</t>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -825,7 +825,7 @@
     <t>Status indicating the contractual clause is fulfilled</t>
   </si>
   <si>
-    <t>dpv:ContractualClauseFulfilment</t>
+    <t>dpv:ContractualClauseFulfilmentState</t>
   </si>
   <si>
     <t>ContractualClauseBreached</t>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="616">
   <si>
     <t>Term</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Creation, completion, fulfilment, or performance of a contract involving specified processing of data or technologies</t>
   </si>
   <si>
-    <t>dpv:LegalAgreement</t>
+    <t>modified</t>
   </si>
   <si>
     <t>ContractPerformance</t>
@@ -318,16 +318,10 @@
     <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data</t>
   </si>
   <si>
-    <t>dpv:LegalAgreement,dpv:Contract</t>
-  </si>
-  <si>
     <t>dpv:LegalBasis,dpv:LegalMeasure</t>
   </si>
   <si>
     <t>For specific role-based data processing agreements, see concepts for Processors and JointDataController agreements.</t>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
   <si>
     <t>Georg P. Krog, Harshvardhan J. Pandit, Beatriz Esteves, Paul Ryan, Julian Flake</t>
@@ -2239,7 +2233,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2348,10 +2342,16 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2896,9 +2896,7 @@
       <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="D5" s="21"/>
       <c r="E5" s="18" t="s">
         <v>25</v>
       </c>
@@ -2910,9 +2908,11 @@
       <c r="K5" s="20">
         <v>44293.0</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="20">
+        <v>45643.0</v>
+      </c>
       <c r="M5" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>26</v>
@@ -3736,29 +3736,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>475</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -3768,10 +3768,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -3789,26 +3789,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>478</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>480</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>483</v>
+        <v>480</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>481</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -3818,10 +3818,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -3839,26 +3839,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>484</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>486</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>486</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -3868,10 +3868,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -3889,29 +3889,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>493</v>
+        <v>490</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>491</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -3921,10 +3921,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -3942,29 +3942,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>497</v>
+        <v>494</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>495</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -3974,10 +3974,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -3995,28 +3995,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>500</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>502</v>
+        <v>499</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>500</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4026,10 +4026,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4047,28 +4047,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>505</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>505</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4078,10 +4078,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4099,28 +4099,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>511</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>511</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4130,10 +4130,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4151,28 +4151,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>516</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>518</v>
+        <v>515</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>516</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4182,10 +4182,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4203,28 +4203,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>521</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>523</v>
+        <v>520</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>521</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -4234,10 +4234,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -4255,28 +4255,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>526</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>528</v>
+        <v>525</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>526</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -4286,10 +4286,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -4307,28 +4307,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>531</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>533</v>
+        <v>530</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>531</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -4338,10 +4338,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -4359,28 +4359,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>536</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>536</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -4390,10 +4390,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -4514,26 +4514,26 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="51"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="20">
         <v>45423.0</v>
       </c>
@@ -4559,27 +4559,27 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>544</v>
-      </c>
       <c r="E3" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="J3" s="51"/>
+        <v>543</v>
+      </c>
+      <c r="J3" s="53"/>
       <c r="K3" s="20">
         <v>45423.0</v>
       </c>
@@ -4605,27 +4605,27 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>549</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="J4" s="51"/>
+        <v>548</v>
+      </c>
+      <c r="J4" s="53"/>
       <c r="K4" s="20">
         <v>45423.0</v>
       </c>
@@ -4651,27 +4651,27 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>554</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="J5" s="51"/>
+        <v>553</v>
+      </c>
+      <c r="J5" s="53"/>
       <c r="K5" s="20">
         <v>45423.0</v>
       </c>
@@ -4697,27 +4697,27 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>558</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="J6" s="51"/>
+        <v>557</v>
+      </c>
+      <c r="J6" s="53"/>
       <c r="K6" s="20">
         <v>45423.0</v>
       </c>
@@ -4742,36 +4742,36 @@
       <c r="AB6" s="21"/>
     </row>
     <row r="7">
-      <c r="J7" s="51"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="J8" s="51"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="J9" s="51"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="J10" s="51"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="J11" s="51"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
       <c r="C12" s="23"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="J13" s="51"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="J14" s="51"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="20"/>
     </row>
   </sheetData>
@@ -4816,13 +4816,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>296</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -4837,7 +4837,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -4854,19 +4854,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>560</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -4881,10 +4881,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4902,19 +4902,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>563</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>565</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -4929,22 +4929,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="I8" s="17" t="s">
         <v>568</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>570</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -4953,62 +4953,62 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="F9" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>576</v>
-      </c>
       <c r="I9" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="56">
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>579</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5017,56 +5017,56 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="I11" s="57" t="s">
         <v>581</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>583</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="56">
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="I12" s="17" t="s">
         <v>585</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>587</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5075,56 +5075,56 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>589</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>583</v>
+      <c r="I13" s="57" t="s">
+        <v>581</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="56">
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>593</v>
-      </c>
       <c r="I14" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5133,62 +5133,62 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>593</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="E15" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="I15" s="17" t="s">
         <v>596</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>598</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="56">
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>601</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -5197,69 +5197,69 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="I17" s="58" t="s">
         <v>603</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>605</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="56">
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
+        <v>443</v>
+      </c>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>607</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>608</v>
-      </c>
       <c r="I18" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -5268,72 +5268,72 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
+        <v>443</v>
+      </c>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>608</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="I19" s="17" t="s">
         <v>610</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>612</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="56">
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="I20" s="17" t="s">
         <v>615</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -5342,13 +5342,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5694,327 +5694,327 @@
       <c r="C7" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="41">
+        <v>44587.0</v>
+      </c>
+      <c r="L7" s="42">
+        <v>45643.0</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="40">
-        <v>44587.0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>45531.0</v>
-      </c>
-      <c r="M7" s="38" t="s">
+      <c r="O7" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>107</v>
-      </c>
       <c r="E8" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="40">
+      <c r="K8" s="41">
         <v>45531.0</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="41">
         <v>45531.0</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>111</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="40">
+      <c r="K9" s="41">
         <v>44587.0</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="41">
         <v>45531.0</v>
       </c>
       <c r="M9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>115</v>
-      </c>
       <c r="E10" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="40">
+      <c r="K10" s="41">
         <v>44587.0</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="41">
         <v>45531.0</v>
       </c>
       <c r="M10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="N10" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>119</v>
-      </c>
       <c r="E11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="40">
+      <c r="K11" s="41">
         <v>44587.0</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="41">
         <v>45531.0</v>
       </c>
       <c r="M11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="40">
+      <c r="K12" s="41">
         <v>44601.0</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="41">
         <v>45531.0</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="N12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
+      <c r="O12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>34</v>
@@ -6026,18 +6026,18 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="42"/>
+        <v>126</v>
+      </c>
+      <c r="J13" s="44"/>
       <c r="K13" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -6055,13 +6055,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>34</v>
@@ -6100,13 +6100,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>34</v>
@@ -6122,7 +6122,7 @@
       <c r="K15" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L15" s="43"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="17" t="s">
         <v>21</v>
       </c>
@@ -6145,13 +6145,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>34</v>
@@ -6163,7 +6163,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="20">
@@ -6192,13 +6192,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
@@ -6214,7 +6214,7 @@
       <c r="K17" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="17" t="s">
         <v>21</v>
       </c>
@@ -6236,14 +6236,14 @@
       <c r="AC17" s="21"/>
     </row>
     <row r="18">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>142</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>144</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>34</v>
@@ -6251,49 +6251,49 @@
       <c r="E18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L18" s="46"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -6334,13 +6334,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>34</v>
@@ -6356,7 +6356,7 @@
       <c r="K20" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="17" t="s">
         <v>21</v>
       </c>
@@ -6379,13 +6379,13 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>34</v>
@@ -6424,16 +6424,16 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>25</v>
@@ -6446,12 +6446,12 @@
       <c r="K22" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L22" s="43"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -6471,13 +6471,13 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>34</v>
@@ -6516,13 +6516,13 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>34</v>
@@ -6538,7 +6538,7 @@
       <c r="K24" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L24" s="43"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="17" t="s">
         <v>21</v>
       </c>
@@ -6561,13 +6561,13 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>34</v>
@@ -6606,13 +6606,13 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>34</v>
@@ -6628,7 +6628,7 @@
       <c r="K26" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L26" s="43"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="17" t="s">
         <v>21</v>
       </c>
@@ -6651,13 +6651,13 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>34</v>
@@ -6696,13 +6696,13 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>34</v>
@@ -6718,7 +6718,7 @@
       <c r="K28" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L28" s="43"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="17" t="s">
         <v>21</v>
       </c>
@@ -6741,13 +6741,13 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>34</v>
@@ -6786,13 +6786,13 @@
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>34</v>
@@ -6808,7 +6808,7 @@
       <c r="K30" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L30" s="43"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="17" t="s">
         <v>21</v>
       </c>
@@ -6914,19 +6914,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -6959,17 +6959,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7002,17 +7002,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -7045,17 +7045,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7088,17 +7088,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>201</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7131,17 +7131,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7174,17 +7174,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7217,17 +7217,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7260,17 +7260,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -7303,17 +7303,17 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7346,17 +7346,17 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -7389,17 +7389,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -7432,17 +7432,17 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -7475,19 +7475,19 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>229</v>
-      </c>
       <c r="E15" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -7520,19 +7520,19 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>232</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -7565,19 +7565,19 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>235</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="21"/>
@@ -7686,13 +7686,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -7731,17 +7731,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>241</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7774,17 +7774,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -7817,17 +7817,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7860,17 +7860,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7903,17 +7903,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>254</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7946,17 +7946,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7989,17 +7989,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -8032,13 +8032,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>18</v>
@@ -8077,17 +8077,17 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8120,17 +8120,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -8163,17 +8163,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -8292,19 +8292,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>277</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -8337,17 +8337,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -8380,17 +8380,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8423,17 +8423,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8466,17 +8466,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8509,17 +8509,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -8589,13 +8589,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>296</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -8606,11 +8606,11 @@
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -8627,55 +8627,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>300</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -8683,159 +8683,159 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>317</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>323</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>333</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="I13" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>340</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="I15" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -8867,22 +8867,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>353</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -8894,19 +8894,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>357</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -8918,22 +8918,22 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>360</v>
-      </c>
       <c r="D20" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K20" s="20">
         <v>45531.0</v>
@@ -9031,19 +9031,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>363</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -9079,17 +9079,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>364</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -9125,17 +9125,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -9171,17 +9171,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -9217,17 +9217,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -9263,19 +9263,19 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>379</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -9311,17 +9311,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>382</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -9357,17 +9357,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>386</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9403,17 +9403,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>387</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>389</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -9449,19 +9449,19 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>392</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -9497,16 +9497,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>396</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -9537,17 +9537,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>397</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -9583,17 +9583,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9629,19 +9629,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>405</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9677,17 +9677,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9723,17 +9723,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -9769,17 +9769,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -9815,17 +9815,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -9861,19 +9861,19 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>421</v>
-      </c>
       <c r="D20" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -9909,17 +9909,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -9955,17 +9955,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -10001,17 +10001,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>431</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -10047,17 +10047,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -10154,13 +10154,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>296</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -10171,11 +10171,11 @@
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -10192,13 +10192,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>435</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>437</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10208,7 +10208,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -10224,7 +10224,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -10249,19 +10249,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>440</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10276,10 +10276,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10301,13 +10301,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -10326,10 +10326,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10351,13 +10351,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>451</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -10376,10 +10376,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10548,16 +10548,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>453</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -10575,10 +10575,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -10596,16 +10596,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>458</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -10614,7 +10614,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -10625,10 +10625,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10646,16 +10646,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>463</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -10664,7 +10664,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -10675,10 +10675,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10696,16 +10696,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>467</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -10714,7 +10714,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -10725,10 +10725,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10746,16 +10746,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>470</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>472</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -10764,7 +10764,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -10775,10 +10775,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="618">
   <si>
     <t>Term</t>
   </si>
@@ -414,6 +414,9 @@
     <t>A contract where the terms and conditions are determined by parties in the role of a 'provider', and the other parties have negligible or no ability to negotiate the terms and conditions</t>
   </si>
   <si>
+    <t>dpv:StandardFormContract</t>
+  </si>
+  <si>
     <t>ConsumerStandardFormContract</t>
   </si>
   <si>
@@ -1071,16 +1074,19 @@
     <t>dpv:hasStatus</t>
   </si>
   <si>
-    <t>hasContractFulfilmentStatus</t>
-  </si>
-  <si>
-    <t>has contract fulfilment status</t>
-  </si>
-  <si>
-    <t>Indicates the fulfilment status of contract</t>
-  </si>
-  <si>
-    <t>dpv:ContractFulfilmentStatus</t>
+    <t>hasContractualFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>has contractual fulfilment status</t>
+  </si>
+  <si>
+    <t>Indicates the fulfilment status of a contract or a contractual clause</t>
+  </si>
+  <si>
+    <t>dpv:Contract,dpv:ContractualClause</t>
+  </si>
+  <si>
+    <t>dpv:hasContractStatus</t>
   </si>
   <si>
     <t>hasContractControl</t>
@@ -1092,7 +1098,7 @@
     <t>Indicates the contract to be used with a contract</t>
   </si>
   <si>
-    <t>hasContractClauseFulfilmentStatus</t>
+    <t>hasContractualClauseFulfilmentStatus</t>
   </si>
   <si>
     <t>has contract contract fulfilment status</t>
@@ -3736,29 +3742,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -3768,10 +3774,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -3789,26 +3795,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -3818,10 +3824,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -3839,26 +3845,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -3868,10 +3874,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -3889,29 +3895,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -3921,10 +3927,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -3942,29 +3948,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -3974,10 +3980,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -3995,28 +4001,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4026,10 +4032,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4047,28 +4053,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4078,10 +4084,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4099,28 +4105,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4130,10 +4136,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4151,28 +4157,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4182,10 +4188,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4203,28 +4209,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -4234,10 +4240,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -4255,28 +4261,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -4286,10 +4292,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -4307,28 +4313,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J13" s="52" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -4338,10 +4344,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -4359,28 +4365,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -4390,10 +4396,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -4514,20 +4520,20 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -4559,25 +4565,25 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="20">
@@ -4605,25 +4611,25 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="20">
@@ -4651,25 +4657,25 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="20">
@@ -4697,25 +4703,25 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J6" s="53"/>
       <c r="K6" s="20">
@@ -4816,13 +4822,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -4837,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -4854,19 +4860,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -4881,10 +4887,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4902,19 +4908,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -4929,22 +4935,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -4953,30 +4959,30 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
@@ -4985,30 +4991,30 @@
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B10" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>574</v>
-      </c>
       <c r="I10" s="23" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5017,27 +5023,27 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
@@ -5046,27 +5052,27 @@
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5075,27 +5081,27 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
@@ -5104,27 +5110,27 @@
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5133,30 +5139,30 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
@@ -5165,30 +5171,30 @@
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="I16" s="23" t="s">
         <v>598</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>596</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -5197,27 +5203,27 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
@@ -5226,13 +5232,13 @@
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59"/>
@@ -5250,16 +5256,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B18" s="55" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>605</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>603</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -5268,13 +5274,13 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P18" s="59"/>
       <c r="Q18" s="59"/>
@@ -5292,16 +5298,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
@@ -5310,30 +5316,30 @@
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -5342,13 +5348,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6064,7 +6070,7 @@
         <v>129</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>25</v>
@@ -6100,16 +6106,16 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>25</v>
@@ -6145,13 +6151,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>34</v>
@@ -6163,7 +6169,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="20">
@@ -6192,13 +6198,13 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
@@ -6237,13 +6243,13 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>34</v>
@@ -6287,13 +6293,13 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
@@ -6315,7 +6321,7 @@
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -6334,13 +6340,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>34</v>
@@ -6379,13 +6385,13 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>34</v>
@@ -6424,16 +6430,16 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>25</v>
@@ -6451,7 +6457,7 @@
         <v>21</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -6471,13 +6477,13 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>34</v>
@@ -6516,13 +6522,13 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>34</v>
@@ -6561,13 +6567,13 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>34</v>
@@ -6606,13 +6612,13 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>34</v>
@@ -6651,13 +6657,13 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>34</v>
@@ -6696,13 +6702,13 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>34</v>
@@ -6741,13 +6747,13 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>34</v>
@@ -6786,13 +6792,13 @@
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>34</v>
@@ -6914,19 +6920,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -6959,17 +6965,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7002,17 +7008,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -7045,17 +7051,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7088,17 +7094,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7131,17 +7137,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7174,17 +7180,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7217,17 +7223,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7260,17 +7266,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -7303,17 +7309,17 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7346,17 +7352,17 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -7389,17 +7395,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -7432,17 +7438,17 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -7475,19 +7481,19 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -7520,19 +7526,19 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -7565,19 +7571,19 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="21"/>
@@ -7686,13 +7692,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -7731,17 +7737,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7774,17 +7780,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -7817,17 +7823,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7860,17 +7866,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7903,17 +7909,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7946,17 +7952,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7989,17 +7995,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -8032,19 +8038,17 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>18</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -8077,17 +8081,19 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>265</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8120,17 +8126,19 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -8163,17 +8171,19 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>272</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="E14" s="17" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -8292,19 +8302,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -8337,17 +8347,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="21"/>
+        <v>279</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="E3" s="17" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -8380,17 +8392,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8423,17 +8437,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>286</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="E5" s="17" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8466,17 +8482,19 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>289</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="E6" s="17" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8509,17 +8527,19 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>292</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="E7" s="17" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -8589,13 +8609,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -8610,7 +8630,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -8627,55 +8647,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -8683,159 +8703,159 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -8867,22 +8887,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -8894,19 +8914,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -8918,38 +8938,34 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K20" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="17" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF15 A17:E17 F17:F18 G17:J17 K17:M20 N17:AF17 F20">
+  <conditionalFormatting sqref="A2:AF15 A17:D17 E17:F18 G17:J17 K17:M20 N17:AF17 F20">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AC15 A17:E17 F17:F18 G17:J17 K17:M20 N17:AC17 F20">
+  <conditionalFormatting sqref="A2:AC15 A17:D17 E17:F18 G17:J17 K17:M20 N17:AC17 F20">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$M2="accepted"</formula>
     </cfRule>
@@ -9031,19 +9047,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -9079,17 +9095,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -9125,17 +9141,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -9171,17 +9187,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -9217,17 +9233,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -9263,19 +9279,19 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -9311,17 +9327,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -9357,17 +9373,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9403,17 +9419,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -9449,19 +9465,19 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -9497,16 +9513,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -9537,17 +9553,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -9583,17 +9599,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9629,19 +9645,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9677,17 +9693,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9723,17 +9739,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -9769,17 +9785,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -9815,17 +9831,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -9861,19 +9877,19 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -9909,17 +9925,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -9955,17 +9971,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -10001,17 +10017,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -10047,17 +10063,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -10154,13 +10170,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -10175,7 +10191,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -10192,13 +10208,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10208,7 +10224,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -10224,7 +10240,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -10249,19 +10265,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10276,10 +10292,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10301,13 +10317,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -10326,10 +10342,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10351,13 +10367,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -10376,10 +10392,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10548,16 +10564,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -10575,10 +10591,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -10596,16 +10612,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>453</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -10614,7 +10630,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -10625,10 +10641,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10646,16 +10662,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -10664,7 +10680,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -10675,10 +10691,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10696,16 +10712,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>461</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -10714,7 +10730,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -10725,10 +10741,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10746,16 +10762,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -10764,7 +10780,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -10775,10 +10791,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="631">
   <si>
     <t>Term</t>
   </si>
@@ -276,7 +276,10 @@
     <t>Data Subject Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Subject as parties, and involving specified processing of data or technologies</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Subject as parties, and involving specified processing of data or technologies. NOTE: This concept is being deprecated - use dpv:ControllerDataSubjectAgreement which has a more explicit definition of the entities involved and the intent of the contract</t>
+  </si>
+  <si>
+    <t>dpv:DataProcessingAgreement</t>
   </si>
   <si>
     <t>sunset</t>
@@ -288,7 +291,7 @@
     <t>Data Processor Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Processor as parties, and involving specified processing of data or technologies</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Data Processor as parties, and involving specified processing of data or technologies. NOTE: This concept is being deprecated - use dpv:ControllerProcessorAgreement which has a more explicit definition of the entities involved and the intent of the contract</t>
   </si>
   <si>
     <t>DataControllerContract</t>
@@ -297,7 +300,7 @@
     <t>Data Controller Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with Data Controllers as parties being Joint Data Controllers, and involving specified processing of data or technologies</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with Data Controllers as parties being Joint Data Controllers, and involving specified processing of data or technologies. NOTE: This concept is being deprecated - use dpv:JointDataControllersAgreement which has a more explicit definition of the entities involved and the intent of the contract</t>
   </si>
   <si>
     <t>ThirdPartyContract</t>
@@ -306,7 +309,7 @@
     <t>Third Party Contract</t>
   </si>
   <si>
-    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Third Party as parties, and involving specified processing of data or technologies</t>
+    <t>Creation, completion, fulfilment, or performance of a contract, with the Data Controller and Third Party as parties, and involving specified processing of data or technologies. NOTE: This concept is being deprecated - use dpv:ThirdPartyAgreement which has a more explicit definition of the entities involved and the intent of the contract</t>
   </si>
   <si>
     <t>DataProcessingAgreement</t>
@@ -339,7 +342,7 @@
     <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data between a Data Controller and a Data Subject</t>
   </si>
   <si>
-    <t>dpv:DataSubjectContract,dpv:DataProcessingAgreement</t>
+    <t>dpv:DataSubjectContract</t>
   </si>
   <si>
     <t>ControllerProcessorAgreement</t>
@@ -351,7 +354,7 @@
     <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data between a Data Controller and a Data Processor</t>
   </si>
   <si>
-    <t>dpv:DataProcessorContract,dpv:DataProcessingAgreement</t>
+    <t>dpv:DataProcessorContract</t>
   </si>
   <si>
     <t>JointDataControllersAgreement</t>
@@ -363,7 +366,7 @@
     <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data between Controllers within a Joint Controllers relationship</t>
   </si>
   <si>
-    <t>dpv:DataControllerContract,dpv:DataProcessingAgreement</t>
+    <t>dpv:DataControllerContract</t>
   </si>
   <si>
     <t>SubProcessorAgreement</t>
@@ -375,9 +378,6 @@
     <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data between a Data Processor and a Data (Sub-)Processor</t>
   </si>
   <si>
-    <t>dpv:DataProcessingAgreement</t>
-  </si>
-  <si>
     <t>ThirdPartyAgreement</t>
   </si>
   <si>
@@ -387,12 +387,21 @@
     <t>An agreement outlining conditions, criteria, obligations, responsibilities, and specifics for carrying out processing of data between a Data Controller or Processor and a Third Party</t>
   </si>
   <si>
-    <t>dpv:ThirdPartyContract,dpv:DataProcessingAgreement</t>
+    <t>dpv:ThirdPartyContract</t>
   </si>
   <si>
     <t>https://www.w3.org/2022/02/09-dpvcg-minutes.html</t>
   </si>
   <si>
+    <t>ContractByNegotiationType</t>
+  </si>
+  <si>
+    <t>Contract by Negotiation Type</t>
+  </si>
+  <si>
+    <t>A generic concept representing contracts categorised based on their use or absence of negotiation in the contract forming process</t>
+  </si>
+  <si>
     <t>StandardFormContract</t>
   </si>
   <si>
@@ -402,6 +411,9 @@
     <t>A contract where the terms and conditions are determined by one or more of the parties, and the other parties have negligible or no ability to negotiate the terms and conditions</t>
   </si>
   <si>
+    <t>dpv:ContractByNegotiationType</t>
+  </si>
+  <si>
     <t>Such a contract results in the unempowered parties being in a "take it or leave it" position as they can only accept or reject the contract. Standard form contracts are also known as "Adhesion contract" or "Boilerplate contract"</t>
   </si>
   <si>
@@ -438,6 +450,135 @@
     <t>Negotiation here refers to the opportunity for a party on their own initiative to modify or dictate terms and conditions within a contract. If the party is provided a set of options to choose from or in other ways is dictated which terms and conditions can be present in the contract, neither of these should be considered a negotiation</t>
   </si>
   <si>
+    <t>ContractByEntityType</t>
+  </si>
+  <si>
+    <t>Contract by Entity Type</t>
+  </si>
+  <si>
+    <t>A generic concept representing contracts categorised by the type of entities involved - such as Businesses (B), Consumers (C), and Governments (G)</t>
+  </si>
+  <si>
+    <t>B2BContract</t>
+  </si>
+  <si>
+    <t>Business-to-Business Contract</t>
+  </si>
+  <si>
+    <t>A contract between two businesses</t>
+  </si>
+  <si>
+    <t>dpv:ContractByEntityType</t>
+  </si>
+  <si>
+    <t>B2CContract</t>
+  </si>
+  <si>
+    <t>Business-to-Consumer Contract</t>
+  </si>
+  <si>
+    <t>A contract between a business and a consumer where the business provides goods or services to the consumer</t>
+  </si>
+  <si>
+    <t>B2B2CContract</t>
+  </si>
+  <si>
+    <t>Business-to-Business-to-Consumer Contract</t>
+  </si>
+  <si>
+    <t>A contract between two businesses who partner together to provide services to a consumer</t>
+  </si>
+  <si>
+    <t>dpv:B2BContract,dpv:B2CContract</t>
+  </si>
+  <si>
+    <t>Beatriz Esteves, Georg P. Krog</t>
+  </si>
+  <si>
+    <t>C2CContract</t>
+  </si>
+  <si>
+    <t>Consumer-to-Consumer Contract</t>
+  </si>
+  <si>
+    <t>A contract between two consumers</t>
+  </si>
+  <si>
+    <t>C2BContract</t>
+  </si>
+  <si>
+    <t>Consumer-to-Business Contract</t>
+  </si>
+  <si>
+    <t>A contract between a consumer and a business where the business purchases goods or services from the consumer</t>
+  </si>
+  <si>
+    <t>G2BContract</t>
+  </si>
+  <si>
+    <t>Government-to-Business Contract</t>
+  </si>
+  <si>
+    <t>A contract between a government and a business</t>
+  </si>
+  <si>
+    <t>G2GContract</t>
+  </si>
+  <si>
+    <t>Government-to-Government Contract</t>
+  </si>
+  <si>
+    <t>A contract between two governments or government departments or units</t>
+  </si>
+  <si>
+    <t>G2CContract</t>
+  </si>
+  <si>
+    <t>Government-to-Consumer Contract</t>
+  </si>
+  <si>
+    <t>A contract between a government and consumers</t>
+  </si>
+  <si>
+    <t>ContractByDomain</t>
+  </si>
+  <si>
+    <t>Contract by Domain</t>
+  </si>
+  <si>
+    <t>A generic concept representing contracts categorised by specific domains which dictate the drafting and interpretation of contracts</t>
+  </si>
+  <si>
+    <t>EmploymentContract</t>
+  </si>
+  <si>
+    <t>Employment Contract</t>
+  </si>
+  <si>
+    <t>A contract regarding employment between an employer and an employee</t>
+  </si>
+  <si>
+    <t>dpv:ContractByDomain</t>
+  </si>
+  <si>
+    <t>DistributionAgreement</t>
+  </si>
+  <si>
+    <t>Distribution Agreement</t>
+  </si>
+  <si>
+    <t>A contract regarding supply of data or technologies between a distributor and a supplier</t>
+  </si>
+  <si>
+    <t>LicenseAgreement</t>
+  </si>
+  <si>
+    <t>License Agreement</t>
+  </si>
+  <si>
+    <t>A Legal Document providing permission to utilise data or resource and outlining the conditions under which such use is considered valid</t>
+  </si>
+  <si>
     <t>ServiceLevelAgreement</t>
   </si>
   <si>
@@ -447,6 +588,252 @@
     <t>A contract regarding the provision of a service which outlines the acceptable metrics and performance of the service for the consumer</t>
   </si>
   <si>
+    <t>EULA</t>
+  </si>
+  <si>
+    <t>End User License Agreement (EULA)</t>
+  </si>
+  <si>
+    <t>End User License Agreement is a contract entered into between a software (or service) developer or provider with the (end-)user</t>
+  </si>
+  <si>
+    <t>dpv:LicenseAgreement</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2021/06/30-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>ContractStatus</t>
+  </si>
+  <si>
+    <t>Contract Status</t>
+  </si>
+  <si>
+    <t>Status associated with a contract</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ContractDrafted</t>
+  </si>
+  <si>
+    <t>Contract Drafted</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been drafted</t>
+  </si>
+  <si>
+    <t>dpv:ContractStatus</t>
+  </si>
+  <si>
+    <t>ContractOffered</t>
+  </si>
+  <si>
+    <t>Contract Offered</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been offered</t>
+  </si>
+  <si>
+    <t>ContractOfferReceived</t>
+  </si>
+  <si>
+    <t>Contract Offer Received</t>
+  </si>
+  <si>
+    <t>Status indicating the contract offer has been received</t>
+  </si>
+  <si>
+    <t>ContractUnderNegotiation</t>
+  </si>
+  <si>
+    <t>Contract UnderNegotiation</t>
+  </si>
+  <si>
+    <t>Status indicating the contract is under negotiation</t>
+  </si>
+  <si>
+    <t>ContractAccepted</t>
+  </si>
+  <si>
+    <t>Contract Accepted</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been accepted by all parties</t>
+  </si>
+  <si>
+    <t>ContractImplemented</t>
+  </si>
+  <si>
+    <t>Contract Completed</t>
+  </si>
+  <si>
+    <t>Status indicating the contract is being executed or implemented i.e. it is in effect</t>
+  </si>
+  <si>
+    <t>ContractRefused</t>
+  </si>
+  <si>
+    <t>Contract Refused</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been refused by one or more parties</t>
+  </si>
+  <si>
+    <t>ContractEnded</t>
+  </si>
+  <si>
+    <t>Contract Ended</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has ended in effect without a violation or dispute</t>
+  </si>
+  <si>
+    <t>ContractTerminated</t>
+  </si>
+  <si>
+    <t>Contract Terminated</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been terminated by one or more parties before its end</t>
+  </si>
+  <si>
+    <t>ContractInvalidated</t>
+  </si>
+  <si>
+    <t>Contract Invalidated</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been invalidated</t>
+  </si>
+  <si>
+    <t>ContractRenewed</t>
+  </si>
+  <si>
+    <t>Contract Renewed</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been renewed</t>
+  </si>
+  <si>
+    <t>ContractFulfilmentState</t>
+  </si>
+  <si>
+    <t>Contract Fulfilment State</t>
+  </si>
+  <si>
+    <t>Status of fulfilment for a contract</t>
+  </si>
+  <si>
+    <t>ContractFulfilled</t>
+  </si>
+  <si>
+    <t>Contract Fulfilled</t>
+  </si>
+  <si>
+    <t>All requirements of the contract have been fulfilled</t>
+  </si>
+  <si>
+    <t>dpv:ContractFulfilmentState</t>
+  </si>
+  <si>
+    <t>ContractBreached</t>
+  </si>
+  <si>
+    <t>Contract Breached</t>
+  </si>
+  <si>
+    <t>One or more requirements of a contract have not been fulfilled or have been breached and the resulting implications are considered a breach of contract</t>
+  </si>
+  <si>
+    <t>ContractUnfulfilled</t>
+  </si>
+  <si>
+    <t>Contract Unfulfilled</t>
+  </si>
+  <si>
+    <t>One or more requirements of a contract have not been fulfilled or have not been fulfilled where this is not considered a breach of contract</t>
+  </si>
+  <si>
+    <t>ContractualClause</t>
+  </si>
+  <si>
+    <t>Contractual Clause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A part or component within a contract that outlines its specifics </t>
+  </si>
+  <si>
+    <t>ContractPreamble</t>
+  </si>
+  <si>
+    <t>Contract Preamble</t>
+  </si>
+  <si>
+    <t>An introductory section outlining the background, context, and purpose of the contract</t>
+  </si>
+  <si>
+    <t>dpv:ContractualClause</t>
+  </si>
+  <si>
+    <t>ContractDefinitions</t>
+  </si>
+  <si>
+    <t>Contract Definitions</t>
+  </si>
+  <si>
+    <t>A section specifying the meanings of key terms and phrases used throughout the contract</t>
+  </si>
+  <si>
+    <t>ContractConfidentialityClause</t>
+  </si>
+  <si>
+    <t>Contract Confidentiality Clause</t>
+  </si>
+  <si>
+    <t>A provision requiring parties to keep certain information confidential and not disclose it to third parties</t>
+  </si>
+  <si>
+    <t>ContractDisputeResolutionClause</t>
+  </si>
+  <si>
+    <t>Contract DisputeResolution Clause</t>
+  </si>
+  <si>
+    <t>A provision detailing the methods and procedures for resolving disagreements or conflicts arising from the contract</t>
+  </si>
+  <si>
+    <t>ContractTerminationClause</t>
+  </si>
+  <si>
+    <t>Contract Termination Clause</t>
+  </si>
+  <si>
+    <t>A provision outlining the conditions under which the contract can be terminated before its completion, including any penalties or obligations</t>
+  </si>
+  <si>
+    <t>ContractAmendmentClause</t>
+  </si>
+  <si>
+    <t>Contract Amendment Clause</t>
+  </si>
+  <si>
+    <t>A provision describing how changes or modifications to the contract can be made and the process for implementing them</t>
+  </si>
+  <si>
+    <t>ContractJurisdictionClause</t>
+  </si>
+  <si>
+    <t>Contract Jurisdiction Clause</t>
+  </si>
+  <si>
+    <t>A provision specifying the legal jurisdiction or court where disputes related to the contract will be resolved</t>
+  </si>
+  <si>
     <t>TermsOfService</t>
   </si>
   <si>
@@ -456,354 +843,6 @@
     <t>Contractual clauses outlining the terms and conditions regarding the provision of a service, typically between a service provider and a service consumer, also know as 'Terms of Use' and 'Terms and Conditions' and commonly abbreviated as TOS, ToS, ToU, or T&amp;C</t>
   </si>
   <si>
-    <t>EULA</t>
-  </si>
-  <si>
-    <t>End User License Agreement (EULA)</t>
-  </si>
-  <si>
-    <t>End User License Agreement is a contract entered into between a software (or service) developer or provider with the (end-)user</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2021/06/30-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>B2BContract</t>
-  </si>
-  <si>
-    <t>Business-to-Business Contract</t>
-  </si>
-  <si>
-    <t>A contract between two businesses</t>
-  </si>
-  <si>
-    <t>B2CContract</t>
-  </si>
-  <si>
-    <t>Business-to-Consumer Contract</t>
-  </si>
-  <si>
-    <t>A contract between a business and a consumer where the business provides goods or services to the consumer</t>
-  </si>
-  <si>
-    <t>B2B2CContract</t>
-  </si>
-  <si>
-    <t>Business-to-Business-to-Consumer Contract</t>
-  </si>
-  <si>
-    <t>A contract between two businesses who partner together to provide services to a consumer</t>
-  </si>
-  <si>
-    <t>dpv:B2BContract,dpv:B2CContract</t>
-  </si>
-  <si>
-    <t>Beatriz Esteves, Georg P. Krog</t>
-  </si>
-  <si>
-    <t>C2CContract</t>
-  </si>
-  <si>
-    <t>Consumer-to-Consumer Contract</t>
-  </si>
-  <si>
-    <t>A contract between two consumers</t>
-  </si>
-  <si>
-    <t>C2BContract</t>
-  </si>
-  <si>
-    <t>Consumer-to-Business Contract</t>
-  </si>
-  <si>
-    <t>A contract between a consumer and a business where the business purchases goods or services from the consumer</t>
-  </si>
-  <si>
-    <t>G2BContract</t>
-  </si>
-  <si>
-    <t>Government-to-Business Contract</t>
-  </si>
-  <si>
-    <t>A contract between a government and a business</t>
-  </si>
-  <si>
-    <t>G2GContract</t>
-  </si>
-  <si>
-    <t>Government-to-Government Contract</t>
-  </si>
-  <si>
-    <t>A contract between two governments or government departments or units</t>
-  </si>
-  <si>
-    <t>G2CContract</t>
-  </si>
-  <si>
-    <t>Government-to-Consumer Contract</t>
-  </si>
-  <si>
-    <t>A contract between a government and consumers</t>
-  </si>
-  <si>
-    <t>EmploymentContract</t>
-  </si>
-  <si>
-    <t>Employment Contract</t>
-  </si>
-  <si>
-    <t>A contract regarding employment between an employer and an employee</t>
-  </si>
-  <si>
-    <t>DistributionAgreement</t>
-  </si>
-  <si>
-    <t>Distribution Agreement</t>
-  </si>
-  <si>
-    <t>A contract regarding supply of data or technologies between a distributor and a supplier</t>
-  </si>
-  <si>
-    <t>LicenseAgreement</t>
-  </si>
-  <si>
-    <t>License Agreement</t>
-  </si>
-  <si>
-    <t>A Legal Document providing permission to utilise data or resource and outlining the conditions under which such use is considered valid</t>
-  </si>
-  <si>
-    <t>ContractStatus</t>
-  </si>
-  <si>
-    <t>Contract Status</t>
-  </si>
-  <si>
-    <t>Status associated with a contract</t>
-  </si>
-  <si>
-    <t>dpv:Status</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>ContractDrafted</t>
-  </si>
-  <si>
-    <t>Contract Drafted</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been drafted</t>
-  </si>
-  <si>
-    <t>dpv:ContractStatus</t>
-  </si>
-  <si>
-    <t>ContractOffered</t>
-  </si>
-  <si>
-    <t>Contract Offered</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been offered</t>
-  </si>
-  <si>
-    <t>ContractOfferReceived</t>
-  </si>
-  <si>
-    <t>Contract Offer Received</t>
-  </si>
-  <si>
-    <t>Status indicating the contract offer has been received</t>
-  </si>
-  <si>
-    <t>ContractUnderNegotiation</t>
-  </si>
-  <si>
-    <t>Contract UnderNegotiation</t>
-  </si>
-  <si>
-    <t>Status indicating the contract is under negotiation</t>
-  </si>
-  <si>
-    <t>ContractAccepted</t>
-  </si>
-  <si>
-    <t>Contract Accepted</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been accepted by all parties</t>
-  </si>
-  <si>
-    <t>ContractImplemented</t>
-  </si>
-  <si>
-    <t>Contract Completed</t>
-  </si>
-  <si>
-    <t>Status indicating the contract is being executed or implemented i.e. it is in effect</t>
-  </si>
-  <si>
-    <t>ContractRefused</t>
-  </si>
-  <si>
-    <t>Contract Refused</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been refused by one or more parties</t>
-  </si>
-  <si>
-    <t>ContractEnded</t>
-  </si>
-  <si>
-    <t>Contract Ended</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has ended in effect without a violation or dispute</t>
-  </si>
-  <si>
-    <t>ContractTerminated</t>
-  </si>
-  <si>
-    <t>Contract Terminated</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been terminated by one or more parties before its end</t>
-  </si>
-  <si>
-    <t>ContractInvalidated</t>
-  </si>
-  <si>
-    <t>Contract Invalidated</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been invalidated</t>
-  </si>
-  <si>
-    <t>ContractRenewed</t>
-  </si>
-  <si>
-    <t>Contract Renewed</t>
-  </si>
-  <si>
-    <t>Status indicating the contract has been renewed</t>
-  </si>
-  <si>
-    <t>ContractFulfilmentState</t>
-  </si>
-  <si>
-    <t>Contract Fulfilment State</t>
-  </si>
-  <si>
-    <t>Status of fulfilment for a contract</t>
-  </si>
-  <si>
-    <t>ContractFulfilled</t>
-  </si>
-  <si>
-    <t>Contract Fulfilled</t>
-  </si>
-  <si>
-    <t>All requirements of the contract have been fulfilled</t>
-  </si>
-  <si>
-    <t>dpv:ContractFulfilmentState</t>
-  </si>
-  <si>
-    <t>ContractBreached</t>
-  </si>
-  <si>
-    <t>Contract Breached</t>
-  </si>
-  <si>
-    <t>One or more requirements of a contract have not been fulfilled or have been breached and the resulting implications are considered a breach of contract</t>
-  </si>
-  <si>
-    <t>ContractUnfulfilled</t>
-  </si>
-  <si>
-    <t>Contract Unfulfilled</t>
-  </si>
-  <si>
-    <t>One or more requirements of a contract have not been fulfilled or have not been fulfilled where this is not considered a breach of contract</t>
-  </si>
-  <si>
-    <t>ContractualClause</t>
-  </si>
-  <si>
-    <t>Contractual Clause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A part or component within a contract that outlines its specifics </t>
-  </si>
-  <si>
-    <t>ContractPreamble</t>
-  </si>
-  <si>
-    <t>Contract Preamble</t>
-  </si>
-  <si>
-    <t>An introductory section outlining the background, context, and purpose of the contract</t>
-  </si>
-  <si>
-    <t>dpv:ContractualClause</t>
-  </si>
-  <si>
-    <t>ContractDefinitions</t>
-  </si>
-  <si>
-    <t>Contract Definitions</t>
-  </si>
-  <si>
-    <t>A section specifying the meanings of key terms and phrases used throughout the contract</t>
-  </si>
-  <si>
-    <t>ContractConfidentialityClause</t>
-  </si>
-  <si>
-    <t>Contract Confidentiality Clause</t>
-  </si>
-  <si>
-    <t>A provision requiring parties to keep certain information confidential and not disclose it to third parties</t>
-  </si>
-  <si>
-    <t>ContractDisputeResolutionClause</t>
-  </si>
-  <si>
-    <t>Contract DisputeResolution Clause</t>
-  </si>
-  <si>
-    <t>A provision detailing the methods and procedures for resolving disagreements or conflicts arising from the contract</t>
-  </si>
-  <si>
-    <t>ContractTerminationClause</t>
-  </si>
-  <si>
-    <t>Contract Termination Clause</t>
-  </si>
-  <si>
-    <t>A provision outlining the conditions under which the contract can be terminated before its completion, including any penalties or obligations</t>
-  </si>
-  <si>
-    <t>ContractAmendmentClause</t>
-  </si>
-  <si>
-    <t>Contract Amendment Clause</t>
-  </si>
-  <si>
-    <t>A provision describing how changes or modifications to the contract can be made and the process for implementing them</t>
-  </si>
-  <si>
-    <t>ContractJurisdictionClause</t>
-  </si>
-  <si>
-    <t>Contract Jurisdiction Clause</t>
-  </si>
-  <si>
-    <t>A provision specifying the legal jurisdiction or court where disputes related to the contract will be resolved</t>
-  </si>
-  <si>
     <t>ContractualClauseFulfilmentState</t>
   </si>
   <si>
@@ -1098,13 +1137,13 @@
     <t>Indicates the contract to be used with a contract</t>
   </si>
   <si>
-    <t>hasContractualClauseFulfilmentStatus</t>
-  </si>
-  <si>
-    <t>has contract contract fulfilment status</t>
-  </si>
-  <si>
-    <t>Indicates the fulfilment status of a contract clause</t>
+    <t>hasContractualClause</t>
+  </si>
+  <si>
+    <t>has contractual clause</t>
+  </si>
+  <si>
+    <t>Indicates the association or involvement of specified contractual clause</t>
   </si>
   <si>
     <t>LegitimateInterestStatus</t>
@@ -2068,7 +2107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2132,6 +2171,11 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2239,7 +2283,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2362,12 +2406,15 @@
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2382,7 +2429,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2397,13 +2444,13 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3742,29 +3789,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>477</v>
+        <v>489</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -3774,10 +3821,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -3795,26 +3842,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>483</v>
+        <v>495</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>496</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -3824,10 +3871,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -3845,26 +3892,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>488</v>
+        <v>500</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>501</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -3874,10 +3921,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -3895,29 +3942,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>493</v>
+        <v>505</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>506</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -3927,10 +3974,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -3948,29 +3995,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>497</v>
+        <v>509</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>510</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -3980,10 +4027,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4001,28 +4048,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>502</v>
+        <v>514</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>515</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4032,10 +4079,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4053,28 +4100,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>491</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>507</v>
+        <v>519</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>520</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4084,10 +4131,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4105,28 +4152,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>513</v>
+        <v>525</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>526</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4136,10 +4183,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4157,28 +4204,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>518</v>
+        <v>530</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>531</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4188,10 +4235,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4209,28 +4256,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>523</v>
+        <v>535</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>536</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -4240,10 +4287,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -4261,28 +4308,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="J12" s="52" t="s">
-        <v>528</v>
+        <v>540</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>541</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -4292,10 +4339,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -4313,28 +4360,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>533</v>
+        <v>545</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>546</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -4344,10 +4391,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -4365,28 +4412,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>538</v>
+        <v>550</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>551</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -4396,10 +4443,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -4520,26 +4567,26 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="20">
         <v>45423.0</v>
       </c>
@@ -4565,27 +4612,27 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="J3" s="53"/>
+        <v>558</v>
+      </c>
+      <c r="J3" s="54"/>
       <c r="K3" s="20">
         <v>45423.0</v>
       </c>
@@ -4611,27 +4658,27 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="J4" s="53"/>
+        <v>563</v>
+      </c>
+      <c r="J4" s="54"/>
       <c r="K4" s="20">
         <v>45423.0</v>
       </c>
@@ -4657,27 +4704,27 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="J5" s="53"/>
+        <v>568</v>
+      </c>
+      <c r="J5" s="54"/>
       <c r="K5" s="20">
         <v>45423.0</v>
       </c>
@@ -4703,27 +4750,27 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>544</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>572</v>
+      </c>
+      <c r="J6" s="54"/>
       <c r="K6" s="20">
         <v>45423.0</v>
       </c>
@@ -4748,36 +4795,36 @@
       <c r="AB6" s="21"/>
     </row>
     <row r="7">
-      <c r="J7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8">
-      <c r="J8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9">
-      <c r="J9" s="53"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="J10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="J11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
       <c r="C12" s="23"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="J13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="J14" s="53"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="20"/>
     </row>
   </sheetData>
@@ -4822,13 +4869,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -4843,7 +4890,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -4860,19 +4907,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -4887,10 +4934,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4908,19 +4955,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -4935,22 +4982,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>568</v>
+        <v>580</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>581</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -4959,62 +5006,62 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>574</v>
+        <v>586</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>587</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="57">
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>578</v>
+        <v>590</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>591</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5023,56 +5070,56 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>581</v>
+        <v>593</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>594</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>583</v>
+        <v>595</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>596</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="57">
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>585</v>
+        <v>597</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>598</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5081,56 +5128,56 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>589</v>
+        <v>601</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>602</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>583</v>
+        <v>603</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>596</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="57">
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>592</v>
+        <v>604</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>605</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5139,62 +5186,62 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>595</v>
+        <v>607</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>608</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="57">
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>600</v>
+        <v>612</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>613</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -5203,69 +5250,69 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>603</v>
+        <v>615</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>616</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>605</v>
+        <v>617</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>618</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="57">
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
+        <v>458</v>
+      </c>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>607</v>
+        <v>619</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>620</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -5274,72 +5321,72 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
+        <v>458</v>
+      </c>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>610</v>
+        <v>622</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>623</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="57">
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -5348,13 +5395,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -5497,11 +5544,11 @@
       <c r="B3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
+      <c r="D3" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>25</v>
@@ -5509,7 +5556,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="12"/>
       <c r="K3" s="15">
         <v>45270.0</v>
@@ -5518,7 +5565,7 @@
         <v>45531.0</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -5542,16 +5589,16 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>25</v>
@@ -5559,7 +5606,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="12"/>
       <c r="K4" s="15">
         <v>45270.0</v>
@@ -5568,7 +5615,7 @@
         <v>45531.0</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -5592,16 +5639,16 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>25</v>
@@ -5609,7 +5656,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="12"/>
       <c r="K5" s="15">
         <v>45270.0</v>
@@ -5618,7 +5665,7 @@
         <v>45531.0</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -5642,16 +5689,16 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
+      <c r="C6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>25</v>
@@ -5659,7 +5706,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="12"/>
       <c r="K6" s="15">
         <v>45270.0</v>
@@ -5668,7 +5715,7 @@
         <v>45531.0</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -5691,43 +5738,21 @@
       <c r="AF6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>98</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="38" t="s">
-        <v>99</v>
-      </c>
+      <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="41">
-        <v>44587.0</v>
-      </c>
-      <c r="L7" s="42">
-        <v>45643.0</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>101</v>
-      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="43"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
@@ -5747,37 +5772,43 @@
       <c r="AF7" s="40"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>102</v>
+      <c r="A8" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="38"/>
+      <c r="I8" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="J8" s="38"/>
       <c r="K8" s="41">
-        <v>45531.0</v>
-      </c>
-      <c r="L8" s="41">
-        <v>45531.0</v>
+        <v>44587.0</v>
+      </c>
+      <c r="L8" s="42">
+        <v>45643.0</v>
       </c>
       <c r="M8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="N8" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>102</v>
+      </c>
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
       <c r="R8" s="40"/>
@@ -5798,19 +5829,19 @@
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>109</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -5818,7 +5849,7 @@
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
       <c r="K9" s="41">
-        <v>44587.0</v>
+        <v>45531.0</v>
       </c>
       <c r="L9" s="41">
         <v>45531.0</v>
@@ -5826,12 +5857,8 @@
       <c r="M9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>101</v>
-      </c>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
@@ -5852,19 +5879,19 @@
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>113</v>
-      </c>
       <c r="E10" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -5881,10 +5908,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="43" t="s">
         <v>101</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="P10" s="40"/>
       <c r="Q10" s="40"/>
@@ -5906,19 +5933,19 @@
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>117</v>
-      </c>
       <c r="E11" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -5935,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="43" t="s">
         <v>101</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
@@ -5960,19 +5987,19 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -5980,7 +6007,7 @@
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="41">
-        <v>44601.0</v>
+        <v>44587.0</v>
       </c>
       <c r="L12" s="41">
         <v>45531.0</v>
@@ -5989,10 +6016,10 @@
         <v>30</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>122</v>
+        <v>101</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -6013,64 +6040,71 @@
       <c r="AF12" s="40"/>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="20">
+      <c r="A13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="41">
+        <v>44601.0</v>
+      </c>
+      <c r="L13" s="41">
         <v>45531.0</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
+      <c r="M13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>25</v>
@@ -6079,16 +6113,16 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L14" s="20"/>
+        <v>45643.0</v>
+      </c>
+      <c r="L14" s="46"/>
       <c r="M14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -6106,16 +6140,16 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>25</v>
@@ -6123,17 +6157,19 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="45"/>
       <c r="K15" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -6151,16 +6187,16 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>25</v>
@@ -6168,9 +6204,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="20">
         <v>45531.0</v>
@@ -6198,16 +6232,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>25</v>
@@ -6215,12 +6249,12 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="17" t="s">
         <v>21</v>
       </c>
@@ -6242,111 +6276,61 @@
       <c r="AC17" s="21"/>
     </row>
     <row r="18">
-      <c r="A18" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>143</v>
+      <c r="A18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>34</v>
@@ -6360,9 +6344,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L20" s="45"/>
+        <v>45643.0</v>
+      </c>
+      <c r="L20" s="46"/>
       <c r="M20" s="17" t="s">
         <v>21</v>
       </c>
@@ -6385,16 +6369,16 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>25</v>
@@ -6407,7 +6391,7 @@
       <c r="K21" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="17" t="s">
         <v>21</v>
       </c>
@@ -6430,16 +6414,16 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>25</v>
@@ -6452,13 +6436,11 @@
       <c r="K22" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="17" t="s">
-        <v>158</v>
-      </c>
+      <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -6477,16 +6459,16 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>25</v>
@@ -6499,11 +6481,13 @@
       <c r="K23" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L23" s="20"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -6522,16 +6506,16 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>25</v>
@@ -6544,7 +6528,7 @@
       <c r="K24" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="17" t="s">
         <v>21</v>
       </c>
@@ -6567,16 +6551,16 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>25</v>
@@ -6589,7 +6573,7 @@
       <c r="K25" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L25" s="20"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="17" t="s">
         <v>21</v>
       </c>
@@ -6612,16 +6596,16 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>25</v>
@@ -6634,7 +6618,7 @@
       <c r="K26" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="17" t="s">
         <v>21</v>
       </c>
@@ -6657,16 +6641,16 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>25</v>
@@ -6679,7 +6663,7 @@
       <c r="K27" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="17" t="s">
         <v>21</v>
       </c>
@@ -6702,16 +6686,16 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>25</v>
@@ -6724,7 +6708,7 @@
       <c r="K28" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L28" s="45"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="17" t="s">
         <v>21</v>
       </c>
@@ -6746,59 +6730,24 @@
       <c r="AC28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
-        <v>180</v>
+      <c r="A30" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>34</v>
@@ -6812,9 +6761,9 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L30" s="45"/>
+        <v>45643.0</v>
+      </c>
+      <c r="L30" s="46"/>
       <c r="M30" s="17" t="s">
         <v>21</v>
       </c>
@@ -6835,23 +6784,250 @@
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
     </row>
+    <row r="31">
+      <c r="A31" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L33" s="46"/>
+      <c r="M33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L34" s="46"/>
+      <c r="M34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="21"/>
+      <c r="O35" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF221">
+  <conditionalFormatting sqref="A2:AF224">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AC60">
+  <conditionalFormatting sqref="A2:AC63">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="O7"/>
-    <hyperlink r:id="rId2" ref="O9"/>
-    <hyperlink r:id="rId3" ref="O10"/>
-    <hyperlink r:id="rId4" ref="O11"/>
-    <hyperlink r:id="rId5" ref="O12"/>
+    <hyperlink r:id="rId1" ref="O8"/>
+    <hyperlink r:id="rId2" ref="O10"/>
+    <hyperlink r:id="rId3" ref="O11"/>
+    <hyperlink r:id="rId4" ref="O12"/>
+    <hyperlink r:id="rId5" ref="O13"/>
   </hyperlinks>
   <drawing r:id="rId6"/>
 </worksheet>
@@ -6920,19 +7096,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -6965,17 +7141,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7008,17 +7184,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -7051,17 +7227,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7094,17 +7270,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7137,17 +7313,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7180,17 +7356,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7223,17 +7399,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7266,17 +7442,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -7309,17 +7485,17 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7352,17 +7528,17 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -7395,17 +7571,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -7438,17 +7614,17 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -7481,19 +7657,19 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -7526,19 +7702,19 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -7571,19 +7747,19 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="21"/>
@@ -7692,13 +7868,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -7737,17 +7913,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7780,17 +7956,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -7823,17 +7999,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7866,17 +8042,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7909,17 +8085,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7952,17 +8128,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7995,17 +8171,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -8036,64 +8212,75 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
     </row>
+    <row r="10">
+      <c r="A10" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L10" s="49"/>
+      <c r="M10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+    </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>263</v>
+      <c r="A12" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>266</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8126,19 +8313,19 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -8171,19 +8358,19 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -8214,23 +8401,68 @@
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
     </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:AF14">
+  <conditionalFormatting sqref="A11:AF15">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$M11="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:AC14">
+  <conditionalFormatting sqref="A11:AC15">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$M11="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF10 A15:AF206">
+  <conditionalFormatting sqref="A2:AF10 A16:AF207">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AC10 A15:AC45">
+  <conditionalFormatting sqref="A2:AC10 A16:AC46">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$M2="accepted"</formula>
     </cfRule>
@@ -8302,19 +8534,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -8347,19 +8579,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -8392,19 +8624,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8437,19 +8669,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8482,19 +8714,19 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8527,19 +8759,19 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -8609,13 +8841,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -8626,11 +8858,11 @@
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -8647,55 +8879,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -8703,159 +8935,159 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -8887,22 +9119,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -8914,19 +9146,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -8937,26 +9169,29 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="K20" s="20">
-        <v>45531.0</v>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="20">
+        <v>45643.0</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9047,19 +9282,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -9095,17 +9330,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -9141,17 +9376,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -9187,17 +9422,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -9233,17 +9468,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -9279,19 +9514,19 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -9327,17 +9562,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -9373,17 +9608,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9419,17 +9654,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -9465,19 +9700,19 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -9513,16 +9748,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -9553,17 +9788,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -9599,17 +9834,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9645,19 +9880,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9693,17 +9928,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9739,17 +9974,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -9785,17 +10020,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -9831,17 +10066,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -9877,19 +10112,19 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -9925,17 +10160,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -9971,17 +10206,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -10017,17 +10252,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -10063,17 +10298,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -10170,13 +10405,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -10187,11 +10422,11 @@
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -10208,13 +10443,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>437</v>
+        <v>448</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>450</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10224,7 +10459,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -10240,7 +10475,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -10265,19 +10500,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10292,10 +10527,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10317,13 +10552,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -10342,10 +10577,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10367,13 +10602,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -10392,10 +10627,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10564,16 +10799,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -10591,10 +10826,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -10612,16 +10847,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -10630,7 +10865,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -10641,10 +10876,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10662,16 +10897,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -10680,7 +10915,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -10691,10 +10926,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10712,16 +10947,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -10730,7 +10965,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -10741,10 +10976,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10762,16 +10997,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -10780,7 +11015,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -10791,10 +11026,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="639">
   <si>
     <t>Term</t>
   </si>
@@ -1923,6 +1923,30 @@
   </si>
   <si>
     <t>Indicates how the controller (with dpv:ObtainConsent) or data subject (with dpv:ProvideConsent) can reaffirm consent e.g. used with dpv:isExercisedAt</t>
+  </si>
+  <si>
+    <t>RefuseConsent</t>
+  </si>
+  <si>
+    <t>Refuse Consent</t>
+  </si>
+  <si>
+    <t>Control for refusing consent</t>
+  </si>
+  <si>
+    <t>ManageConsent</t>
+  </si>
+  <si>
+    <t>Manage Consent</t>
+  </si>
+  <si>
+    <t>Control for managing a given consent in terms of providing, reaffirming, or withdrawing it</t>
+  </si>
+  <si>
+    <t>dpv:ProvideConsent,dpv:WithdrawConsent,dpv:ReaffirmConsent</t>
+  </si>
+  <si>
+    <t>Indicates how the data subject can manage their consent in terms of providing it, or reaffirming or withdrawing a given consent. This concept is useful to represent a single location or interface where multiple controls are provided for consent</t>
   </si>
   <si>
     <t>hasConsentStatus</t>
@@ -4795,12 +4819,96 @@
       <c r="AB6" s="21"/>
     </row>
     <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23" t="s">
+        <v>572</v>
+      </c>
       <c r="J7" s="54"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20">
+        <v>45643.0</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
     </row>
     <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="23" t="s">
+        <v>580</v>
+      </c>
       <c r="J8" s="54"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>45643.0</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
     </row>
     <row r="9">
       <c r="J9" s="54"/>
@@ -4907,13 +5015,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -4955,13 +5063,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -4982,22 +5090,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -5006,10 +5114,10 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>458</v>
@@ -5017,19 +5125,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
@@ -5038,10 +5146,10 @@
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>458</v>
@@ -5049,19 +5157,19 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B10" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>591</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>583</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5070,10 +5178,10 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>458</v>
@@ -5081,16 +5189,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
@@ -5099,10 +5207,10 @@
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>458</v>
@@ -5110,16 +5218,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5128,10 +5236,10 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>458</v>
@@ -5139,16 +5247,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
@@ -5157,10 +5265,10 @@
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>458</v>
@@ -5168,16 +5276,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5186,10 +5294,10 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>458</v>
@@ -5197,19 +5305,19 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
@@ -5218,10 +5326,10 @@
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>458</v>
@@ -5229,19 +5337,19 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -5250,10 +5358,10 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>458</v>
@@ -5261,16 +5369,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
@@ -5279,10 +5387,10 @@
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O17" s="22" t="s">
         <v>458</v>
@@ -5303,16 +5411,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -5321,10 +5429,10 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>458</v>
@@ -5345,16 +5453,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
@@ -5363,10 +5471,10 @@
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>458</v>
@@ -5374,19 +5482,19 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -5395,10 +5503,10 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>458</v>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="650">
   <si>
     <t>Term</t>
   </si>
@@ -663,7 +663,40 @@
     <t>Contract Accepted</t>
   </si>
   <si>
-    <t>Status indicating the contract has been accepted by all parties</t>
+    <t>Status indicating the contract has been accepted by some or all entities</t>
+  </si>
+  <si>
+    <t>Additional specialised concepts are provided and recommended to represent the common but contextual uses of the phrasing "contract accepted" for 1) indicate this party has accepted the contract - dpv:ContractAcceptedThisEntity; 2) indicate some parties have accepted it and others are yet to make a decision - dpv:ContractAcceptedSomeEntities; and 3) indicate all parties have accepted the contract - dpv:ContractAcceptedAllEntities</t>
+  </si>
+  <si>
+    <t>ContractAcceptedSomeEntities</t>
+  </si>
+  <si>
+    <t>Contract Accepted by Some Entities</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been accepted by some entities and others are in the process of making a decision</t>
+  </si>
+  <si>
+    <t>dpv:ContractAccepted</t>
+  </si>
+  <si>
+    <t>ContractedAcceptedAllEntities</t>
+  </si>
+  <si>
+    <t>Contract Accepted by All Entities</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been accepted by all entities who are a party to the contract - which means the contract is now in effect</t>
+  </si>
+  <si>
+    <t>ContractAcceptedThisEntity</t>
+  </si>
+  <si>
+    <t>Contract Accepted by This Entity</t>
+  </si>
+  <si>
+    <t>Status indicating the contract has been accepted by the specific entity in context</t>
   </si>
   <si>
     <t>ContractImplemented</t>
@@ -3813,14 +3846,14 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>196</v>
@@ -3832,10 +3865,10 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -3845,10 +3878,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -3866,26 +3899,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -3895,10 +3928,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -3916,26 +3949,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -3945,10 +3978,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -3966,29 +3999,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -3998,10 +4031,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4019,29 +4052,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -4051,10 +4084,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4072,28 +4105,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4103,10 +4136,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4124,28 +4157,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4155,10 +4188,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4176,28 +4209,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4207,10 +4240,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4228,28 +4261,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4259,10 +4292,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4280,28 +4313,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -4311,10 +4344,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -4332,28 +4365,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -4363,10 +4396,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -4384,28 +4417,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -4415,10 +4448,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -4436,28 +4469,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -4467,10 +4500,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -4591,17 +4624,17 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>197</v>
@@ -4636,16 +4669,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>197</v>
@@ -4654,7 +4687,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="J3" s="54"/>
       <c r="K3" s="20">
@@ -4682,16 +4715,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>197</v>
@@ -4700,7 +4733,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="20">
@@ -4728,16 +4761,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>197</v>
@@ -4746,7 +4779,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="J5" s="54"/>
       <c r="K5" s="20">
@@ -4774,16 +4807,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>197</v>
@@ -4792,7 +4825,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="20">
@@ -4820,16 +4853,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>197</v>
@@ -4838,7 +4871,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="23" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="20">
@@ -4866,16 +4899,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>197</v>
@@ -4884,7 +4917,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="23" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J8" s="54"/>
       <c r="K8" s="20">
@@ -4977,13 +5010,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -4998,7 +5031,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -5015,19 +5048,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5042,10 +5075,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -5063,19 +5096,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -5090,22 +5123,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -5114,30 +5147,30 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
@@ -5146,30 +5179,30 @@
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5178,27 +5211,27 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
@@ -5207,27 +5240,27 @@
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5236,27 +5269,27 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
@@ -5265,27 +5298,27 @@
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5294,30 +5327,30 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
@@ -5326,30 +5359,30 @@
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -5358,27 +5391,27 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
@@ -5387,13 +5420,13 @@
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P17" s="60"/>
       <c r="Q17" s="60"/>
@@ -5411,16 +5444,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -5429,13 +5462,13 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
@@ -5453,16 +5486,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
@@ -5471,30 +5504,30 @@
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -5503,13 +5536,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -7436,7 +7469,9 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="17" t="s">
+        <v>214</v>
+      </c>
       <c r="J7" s="21"/>
       <c r="K7" s="20">
         <v>45531.0</v>
@@ -7464,15 +7499,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>217</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="E8" s="17" t="s">
         <v>201</v>
       </c>
@@ -7482,7 +7519,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="20">
-        <v>45531.0</v>
+        <v>45659.0</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="17" t="s">
@@ -7507,15 +7544,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
         <v>201</v>
       </c>
@@ -7525,7 +7564,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="20">
-        <v>45531.0</v>
+        <v>45659.0</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="17" t="s">
@@ -7550,15 +7589,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="E10" s="17" t="s">
         <v>201</v>
       </c>
@@ -7568,7 +7609,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="20">
-        <v>45531.0</v>
+        <v>45659.0</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="17" t="s">
@@ -7593,13 +7634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
@@ -7636,13 +7677,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
@@ -7679,13 +7720,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
@@ -7721,14 +7762,14 @@
       <c r="AC13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>232</v>
+      <c r="A14" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
@@ -7765,17 +7806,15 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
         <v>201</v>
       </c>
@@ -7810,17 +7849,15 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
         <v>201</v>
       </c>
@@ -7854,22 +7891,20 @@
       <c r="AC16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
-        <v>242</v>
+      <c r="A17" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -7898,13 +7933,148 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
     </row>
+    <row r="18">
+      <c r="A18" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF17 A22:AF213">
+  <conditionalFormatting sqref="A2:AF20 A25:AF216">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AC17 A22:AC52">
+  <conditionalFormatting sqref="A2:AC20 A25:AC55">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$M2="accepted"</formula>
     </cfRule>
@@ -7976,13 +8146,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -8021,17 +8191,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -8064,17 +8234,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8107,17 +8277,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8150,17 +8320,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8193,17 +8363,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -8236,17 +8406,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -8279,17 +8449,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -8322,17 +8492,17 @@
     </row>
     <row r="10">
       <c r="A10" s="47" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
@@ -8378,13 +8548,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
@@ -8421,16 +8591,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>201</v>
@@ -8466,16 +8636,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>201</v>
@@ -8511,16 +8681,16 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>201</v>
@@ -8642,16 +8812,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>197</v>
@@ -8687,16 +8857,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>197</v>
@@ -8732,16 +8902,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>197</v>
@@ -8777,16 +8947,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>197</v>
@@ -8822,16 +8992,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>197</v>
@@ -8867,16 +9037,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>197</v>
@@ -8949,13 +9119,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -8970,7 +9140,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -8987,55 +9157,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -9043,150 +9213,150 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
@@ -9195,7 +9365,7 @@
         <v>201</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -9227,22 +9397,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>201</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -9254,19 +9424,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -9281,19 +9451,19 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="K21" s="20">
         <v>45643.0</v>
@@ -9390,13 +9560,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>196</v>
@@ -9438,17 +9608,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -9484,17 +9654,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -9530,17 +9700,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -9576,17 +9746,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -9622,13 +9792,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>196</v>
@@ -9670,17 +9840,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -9716,17 +9886,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9762,17 +9932,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -9808,13 +9978,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>196</v>
@@ -9856,16 +10026,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -9896,17 +10066,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -9942,17 +10112,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9988,13 +10158,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>196</v>
@@ -10036,17 +10206,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -10082,17 +10252,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -10128,17 +10298,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -10174,17 +10344,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -10220,13 +10390,13 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>196</v>
@@ -10268,17 +10438,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -10314,17 +10484,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -10360,17 +10530,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -10406,17 +10576,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -10513,13 +10683,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -10534,7 +10704,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -10551,13 +10721,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10567,7 +10737,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -10583,7 +10753,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -10608,19 +10778,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10635,10 +10805,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10660,13 +10830,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -10685,10 +10855,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10710,13 +10880,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -10735,10 +10905,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -10907,16 +11077,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -10934,10 +11104,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -10955,16 +11125,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -10973,7 +11143,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -10984,10 +11154,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -11005,16 +11175,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -11023,7 +11193,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -11034,10 +11204,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -11055,16 +11225,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -11073,7 +11243,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -11084,10 +11254,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -11105,16 +11275,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -11123,7 +11293,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -11134,10 +11304,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -5,16 +5,17 @@
   <sheets>
     <sheet state="visible" name="LegalBasis" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="ContractTypes" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ContractStatus" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ContractClause" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="ContractControl" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Contract_properties" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="LegalBasisStatus" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="LegalBasis_properties" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="ConsentTypes" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="ConsentStatus" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="ConsentControls" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Consent_properties" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="ContractStatus_old" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ContractStatus" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ContractClause" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ContractControl" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Contract_properties" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="LegalBasisStatus" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="LegalBasis_properties" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="ConsentTypes" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="ConsentStatus" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="ConsentControls" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Consent_properties" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="752">
   <si>
     <t>Term</t>
   </si>
@@ -669,34 +670,37 @@
     <t>Additional specialised concepts are provided and recommended to represent the common but contextual uses of the phrasing "contract accepted" for 1) indicate this party has accepted the contract - dpv:ContractAcceptedThisEntity; 2) indicate some parties have accepted it and others are yet to make a decision - dpv:ContractAcceptedSomeEntities; and 3) indicate all parties have accepted the contract - dpv:ContractAcceptedAllEntities</t>
   </si>
   <si>
-    <t>ContractAcceptedSomeEntities</t>
+    <t>ContractAcceptedSomeParties</t>
   </si>
   <si>
     <t>Contract Accepted by Some Entities</t>
   </si>
   <si>
-    <t>Status indicating the contract has been accepted by some entities and others are in the process of making a decision</t>
+    <t>Status indicating the contract has been accepted by some parties and others are in the process of making a decision</t>
   </si>
   <si>
     <t>dpv:ContractAccepted</t>
   </si>
   <si>
-    <t>ContractedAcceptedAllEntities</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake</t>
+  </si>
+  <si>
+    <t>ContractAcceptedAllParties</t>
   </si>
   <si>
     <t>Contract Accepted by All Entities</t>
   </si>
   <si>
-    <t>Status indicating the contract has been accepted by all entities who are a party to the contract - which means the contract is now in effect</t>
-  </si>
-  <si>
-    <t>ContractAcceptedThisEntity</t>
+    <t>Status indicating the contract has been accepted by all parties who are a party to the contract - which means the contract is now in effect</t>
+  </si>
+  <si>
+    <t>ContractAcceptedThisParty</t>
   </si>
   <si>
     <t>Contract Accepted by This Entity</t>
   </si>
   <si>
-    <t>Status indicating the contract has been accepted by the specific entity in context</t>
+    <t>Status indicating the contract has been accepted by the specific party in context</t>
   </si>
   <si>
     <t>ContractImplemented</t>
@@ -762,13 +766,13 @@
     <t>Status of fulfilment for a contract</t>
   </si>
   <si>
-    <t>ContractFulfilled</t>
-  </si>
-  <si>
-    <t>Contract Fulfilled</t>
-  </si>
-  <si>
-    <t>All requirements of the contract have been fulfilled</t>
+    <t>ContractFulfiled</t>
+  </si>
+  <si>
+    <t>Contract Fulfiled</t>
+  </si>
+  <si>
+    <t>All requirements of the contract have been fulfiled</t>
   </si>
   <si>
     <t>dpv:ContractFulfilmentState</t>
@@ -780,16 +784,298 @@
     <t>Contract Breached</t>
   </si>
   <si>
-    <t>One or more requirements of a contract have not been fulfilled or have been breached and the resulting implications are considered a breach of contract</t>
-  </si>
-  <si>
-    <t>ContractUnfulfilled</t>
-  </si>
-  <si>
-    <t>Contract Unfulfilled</t>
-  </si>
-  <si>
-    <t>One or more requirements of a contract have not been fulfilled or have not been fulfilled where this is not considered a breach of contract</t>
+    <t>One or more requirements of a contract have not been fulfiled or have been breached and the resulting implications are considered a breach of contract</t>
+  </si>
+  <si>
+    <t>ContractUnfulfiled</t>
+  </si>
+  <si>
+    <t>Contract Unfulfiled</t>
+  </si>
+  <si>
+    <t>One or more requirements of a contract have not been fulfiled or have not been fulfiled where this is not considered a breach of contract</t>
+  </si>
+  <si>
+    <t>ContractPreparationStatus</t>
+  </si>
+  <si>
+    <t>Contract Preparation Status</t>
+  </si>
+  <si>
+    <t>Status associated with preparation of contracts before they are signed or accepted or executed</t>
+  </si>
+  <si>
+    <t>Status representing the drafting of contract text has been completed and it can now be offered for signing</t>
+  </si>
+  <si>
+    <t>dpv:ContractPreparationStatus</t>
+  </si>
+  <si>
+    <t>Status representing contract has been offered to a party or to parties for reviewing and signing</t>
+  </si>
+  <si>
+    <t>ContractUnderReview</t>
+  </si>
+  <si>
+    <t>Contract Under Review</t>
+  </si>
+  <si>
+    <t>Status representing contract is under review and is being considered for signing</t>
+  </si>
+  <si>
+    <t>ContractReviewed</t>
+  </si>
+  <si>
+    <t>Contract Reviewed</t>
+  </si>
+  <si>
+    <t>Status representing contract has been reviewed</t>
+  </si>
+  <si>
+    <t>Contract Under Negotiation</t>
+  </si>
+  <si>
+    <t>Status representing contract is under negotiation between parties</t>
+  </si>
+  <si>
+    <t>ContractNegotiated</t>
+  </si>
+  <si>
+    <t>Contract Negotiated</t>
+  </si>
+  <si>
+    <t>Status representing contract has been successfully negotiated by involved parties</t>
+  </si>
+  <si>
+    <t>ContractRejected</t>
+  </si>
+  <si>
+    <t>Contract Rejected</t>
+  </si>
+  <si>
+    <t>Status representing contract has been rejected and cannot be used for signing</t>
+  </si>
+  <si>
+    <t>ContractApproved</t>
+  </si>
+  <si>
+    <t>Contract Approved</t>
+  </si>
+  <si>
+    <t>Status representing contract has been approved and can be used for signing</t>
+  </si>
+  <si>
+    <t>ContractExecutionStatus</t>
+  </si>
+  <si>
+    <t>Contract Execution Status</t>
+  </si>
+  <si>
+    <t>Status associated with execution of a contract (i.e. signing and procedural aspects before the contract terms come in to effect)</t>
+  </si>
+  <si>
+    <t>ContractPartiallySigned</t>
+  </si>
+  <si>
+    <t>Contract Partially Signed</t>
+  </si>
+  <si>
+    <t>Status representing contract has been partially signed by parties i.e. some parties have signed the contract and others are yet to make a decision to sign it</t>
+  </si>
+  <si>
+    <t>dpv:ContractExecutionStatus</t>
+  </si>
+  <si>
+    <t>ContractFullySigned</t>
+  </si>
+  <si>
+    <t>Contract Fully Signed</t>
+  </si>
+  <si>
+    <t>Status representing contract has been signed by all concerned parties</t>
+  </si>
+  <si>
+    <t>ContractSignedByParty</t>
+  </si>
+  <si>
+    <t>Contract Signed By Party</t>
+  </si>
+  <si>
+    <t>Status representing contract has been signed by the indicated signing party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The signing party can be expressed using dpv:hasParty with the status along with metadata such as a timestamp, or the status can be used to list whether each party in the contract has signed or not e.g. it is reviewing the contract </t>
+  </si>
+  <si>
+    <t>ContractFullyExecuted</t>
+  </si>
+  <si>
+    <t>Contract Fully Executed</t>
+  </si>
+  <si>
+    <t>Status representing contract has been fully executed i.e. it has been signed by all parties and all other procedural aspects such as exchange of signed contract copies have been completed</t>
+  </si>
+  <si>
+    <t>ContractActivationStatus</t>
+  </si>
+  <si>
+    <t>Contract Activation Status</t>
+  </si>
+  <si>
+    <t>ContractActive</t>
+  </si>
+  <si>
+    <t>Contract Active</t>
+  </si>
+  <si>
+    <t>Status representing contract that has been fully executed and whose terms are considered active i.e. they are applicable and are required to be performed</t>
+  </si>
+  <si>
+    <t>dpv:ContractActivationStatus</t>
+  </si>
+  <si>
+    <t>A contract being active only refers to its terms now being required to be fulfiled, while dpv:ContractBeingPerformed states that they are being performed</t>
+  </si>
+  <si>
+    <t>ContractInactive</t>
+  </si>
+  <si>
+    <t>Contract Inactive</t>
+  </si>
+  <si>
+    <t>Status representing contract that has been fully executed and whose terms are not yet active i.e. they need to be performed at a later time</t>
+  </si>
+  <si>
+    <t>An example of an inactive contract is where its terms need to be fulfiled at a later date, at which point the contract will become active</t>
+  </si>
+  <si>
+    <t>ContractPerformanceStatus</t>
+  </si>
+  <si>
+    <t>Contract Performance Status</t>
+  </si>
+  <si>
+    <t>Status associated with performance of a contract</t>
+  </si>
+  <si>
+    <t>ContractBeingPerformed</t>
+  </si>
+  <si>
+    <t>Contract Being Performed</t>
+  </si>
+  <si>
+    <t>Status representing contract that has been fully executed and whose terms are being carried out i.e. the contract is being performed</t>
+  </si>
+  <si>
+    <t>dpv:ContractPerformanceStatus</t>
+  </si>
+  <si>
+    <t>ContractAmended</t>
+  </si>
+  <si>
+    <t>Contract Amended</t>
+  </si>
+  <si>
+    <t>Status representing contract that has been fully executed and whose terms have been amended through mutual agreement or other means such that the contract is still required to be performed</t>
+  </si>
+  <si>
+    <t>ContractTemporarilySuspended</t>
+  </si>
+  <si>
+    <t>Contract Temporarily Suspended</t>
+  </si>
+  <si>
+    <t>Status representing contract that has been temporarily suspended through mutual agreement or by some parties</t>
+  </si>
+  <si>
+    <t>Status representing contract being renewed with new duration and/or applicability where the contract has been fully executed in the past</t>
+  </si>
+  <si>
+    <t>ContractExtended</t>
+  </si>
+  <si>
+    <t>Contract Extended</t>
+  </si>
+  <si>
+    <t>Status representing the duration associated with a contract being extended through mutual agreement or by a party</t>
+  </si>
+  <si>
+    <t>dpv:ContractTerminationStatus</t>
+  </si>
+  <si>
+    <t>ContractTerminationStatus</t>
+  </si>
+  <si>
+    <t>Contract Termination Status</t>
+  </si>
+  <si>
+    <t>Status associated with termination of a contract</t>
+  </si>
+  <si>
+    <t>Status representing contract being terminated by one or more parties</t>
+  </si>
+  <si>
+    <t>ContractExpired</t>
+  </si>
+  <si>
+    <t>Contract Expired</t>
+  </si>
+  <si>
+    <t>Status representing reaching the expiry defined in the contract, such as when the stated duration or the stated obligations have been completed</t>
+  </si>
+  <si>
+    <t>Status representing contract being breached where its terms are not fulfiled or are violated with legal consequences</t>
+  </si>
+  <si>
+    <t>ContractDisputed</t>
+  </si>
+  <si>
+    <t>Contract Disputed</t>
+  </si>
+  <si>
+    <t>Status representing contract being disputed where one or more parties have an issue regarding the interpretation and performance of the contract</t>
+  </si>
+  <si>
+    <t>ContractFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>Contract Fulfilment Status</t>
+  </si>
+  <si>
+    <t>Status associated with fulfilment of a contract</t>
+  </si>
+  <si>
+    <t>Status representing contract where all its terms have been fulfiled in a manner that does not constitute a violation or breach of the contract</t>
+  </si>
+  <si>
+    <t>dpv:ContractFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>ContractPartiallyFulfiled</t>
+  </si>
+  <si>
+    <t>Contract Partially Fulfiled</t>
+  </si>
+  <si>
+    <t>Status representing contract where some of its terms have been fulfiled, and others are yet to be fulfiled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
+  </si>
+  <si>
+    <t>ContractNotFulfiled</t>
+  </si>
+  <si>
+    <t>Contract Not Fulfiled</t>
+  </si>
+  <si>
+    <t>Status representing contract where none of its terms have been fulfiled in a manner that does not constitutea violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
+  </si>
+  <si>
+    <t>ContractViolated</t>
+  </si>
+  <si>
+    <t>Contract Violated</t>
+  </si>
+  <si>
+    <t>Status representing contract where one or more terms have not been fulfiled or have been fulfiled, where either is considered a violation of the terms</t>
   </si>
   <si>
     <t>ContractualClause</t>
@@ -876,43 +1162,52 @@
     <t>Contractual clauses outlining the terms and conditions regarding the provision of a service, typically between a service provider and a service consumer, also know as 'Terms of Use' and 'Terms and Conditions' and commonly abbreviated as TOS, ToS, ToU, or T&amp;C</t>
   </si>
   <si>
-    <t>ContractualClauseFulfilmentState</t>
-  </si>
-  <si>
-    <t>Contractual Clause Fulfilment State</t>
-  </si>
-  <si>
-    <t>Status of fulfilment for a contractual clause</t>
-  </si>
-  <si>
-    <t>ContractualClauseFulfilled</t>
-  </si>
-  <si>
-    <t>Contractual Clause Fulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating the contractual clause is fulfilled</t>
-  </si>
-  <si>
-    <t>dpv:ContractualClauseFulfilmentState</t>
-  </si>
-  <si>
-    <t>ContractualClauseBreached</t>
+    <t>ContractualClauseFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>Contractual Clause Fulfilment Status</t>
+  </si>
+  <si>
+    <t>Status associated with fulfilment of a contractual clause</t>
+  </si>
+  <si>
+    <t>ContractualClauseFulfiled</t>
+  </si>
+  <si>
+    <t>Contractual Clause Fulfiled</t>
+  </si>
+  <si>
+    <t>Status indicating the terms of the contractual clause are fulfiled i.e. they have been succesfully completed without violation</t>
+  </si>
+  <si>
+    <t>dpv:ContractualClauseFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>ContractualClausePartiallyFulfiled</t>
+  </si>
+  <si>
+    <t>Contractual Clause Partially Fulfiled</t>
+  </si>
+  <si>
+    <t>Status indicating some of the terms of the contractual clause have been fulfiled, and others have not yet been fulfiled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
+  </si>
+  <si>
+    <t>ContractualClauseViolated</t>
   </si>
   <si>
     <t>Contractual Clause Breached</t>
   </si>
   <si>
-    <t>Status indicating the contractual clause is breached</t>
-  </si>
-  <si>
-    <t>ContractualClauseUnfulfilled</t>
-  </si>
-  <si>
-    <t>Contractual Clause Unfulfilled</t>
-  </si>
-  <si>
-    <t>Status is indicating the contractual clause is not fuflfilled where this is not considered a breach</t>
+    <t>Status indicating the terms of the contractual clause have been violated</t>
+  </si>
+  <si>
+    <t>ContractualClauseNotFulfiled</t>
+  </si>
+  <si>
+    <t>Contractual Clause Unfulfiled</t>
+  </si>
+  <si>
+    <t>Status indicating the terms of the contractual clause have not yet been fulfiled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
   </si>
   <si>
     <t>ContractControl</t>
@@ -1170,6 +1465,21 @@
     <t>Indicates the contract to be used with a contract</t>
   </si>
   <si>
+    <t>hasParty</t>
+  </si>
+  <si>
+    <t>has party</t>
+  </si>
+  <si>
+    <t>Indicates a legal entity involved as a party in a contract</t>
+  </si>
+  <si>
+    <t>dpv:LegalEntity</t>
+  </si>
+  <si>
+    <t>Julian Flake, Georg P. Krog, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
     <t>hasContractualClause</t>
   </si>
   <si>
@@ -1254,7 +1564,7 @@
     <t>Legal ObligationOngoing</t>
   </si>
   <si>
-    <t>Status where the legal obligation is being fulfilled</t>
+    <t>Status where the legal obligation is being fulfiled</t>
   </si>
   <si>
     <t>LegalObligationPending</t>
@@ -2094,9 +2404,6 @@
     <t>Specifies the entity that withdrew consent</t>
   </si>
   <si>
-    <t>dpv:LegalEntity</t>
-  </si>
-  <si>
     <t>use dpv:isIndicatedBy instead</t>
   </si>
   <si>
@@ -2164,7 +2471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2240,6 +2547,12 @@
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF0000FF"/>
@@ -2340,7 +2653,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2468,10 +2781,16 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2486,7 +2805,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2501,13 +2820,13 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2590,6 +2909,10 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3846,42 +4169,37 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="B2" s="17" t="str">
-        <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
-        <v>Consent Status</v>
+        <v>579</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>580</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>499</v>
+        <v>581</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>196</v>
+        <v>582</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>501</v>
-      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="20">
-        <v>44734.0</v>
+        <v>44733.0</v>
       </c>
       <c r="L2" s="21"/>
       <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -3899,39 +4217,39 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>502</v>
+        <v>583</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" s="21"/>
+        <v>585</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>582</v>
+      </c>
       <c r="E3" s="17" t="s">
-        <v>505</v>
+        <v>25</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>507</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="J3" s="21"/>
       <c r="K3" s="20">
-        <v>44734.0</v>
+        <v>44733.0</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -3949,39 +4267,39 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>589</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>590</v>
+      </c>
       <c r="E4" s="17" t="s">
-        <v>505</v>
+        <v>25</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>512</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="20">
-        <v>44734.0</v>
+        <v>44733.0</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -3999,42 +4317,39 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="B5" s="17" t="str">
-        <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
-        <v>Consent Unknown</v>
+        <v>592</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>593</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>505</v>
+        <v>25</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>517</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="20">
-        <v>44734.0</v>
+        <v>44733.0</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4052,42 +4367,39 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>Consent Requested</v>
+        <v>596</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>597</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>505</v>
+        <v>25</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>521</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="20">
-        <v>44734.0</v>
+        <v>44733.0</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4103,30 +4415,371 @@
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
     </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AB10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="O2"/>
+    <hyperlink r:id="rId2" ref="O3"/>
+    <hyperlink r:id="rId3" ref="O4"/>
+    <hyperlink r:id="rId4" ref="O5"/>
+    <hyperlink r:id="rId5" ref="O6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
+        <v>Consent Status</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="K2" s="20">
+        <v>44734.0</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="K3" s="20">
+        <v>44734.0</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="K4" s="20">
+        <v>44734.0</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
+        <v>Consent Unknown</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>620</v>
+      </c>
+      <c r="K5" s="20">
+        <v>44734.0</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Consent Requested</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>624</v>
+      </c>
+      <c r="K6" s="20">
+        <v>44734.0</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+    </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>522</v>
+        <v>625</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>523</v>
+        <v>626</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>524</v>
+        <v>627</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>526</v>
+        <v>628</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>629</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4136,10 +4789,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4157,28 +4810,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>527</v>
+        <v>630</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>529</v>
+        <v>632</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>531</v>
+        <v>633</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>634</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4188,10 +4841,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4209,28 +4862,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>533</v>
+        <v>636</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>534</v>
+        <v>637</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>535</v>
+        <v>638</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>537</v>
+        <v>639</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>640</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4240,10 +4893,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4261,28 +4914,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>539</v>
+        <v>642</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>540</v>
+        <v>643</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>542</v>
+        <v>644</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>645</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4292,10 +4945,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4313,28 +4966,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>543</v>
+        <v>646</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>544</v>
+        <v>647</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>545</v>
+        <v>648</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>547</v>
+        <v>649</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>650</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -4344,10 +4997,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -4365,28 +5018,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>548</v>
+        <v>651</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>549</v>
+        <v>652</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>552</v>
+        <v>654</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>655</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -4396,10 +5049,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -4417,28 +5070,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>553</v>
+        <v>656</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>554</v>
+        <v>657</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>555</v>
+        <v>658</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>557</v>
+        <v>659</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>660</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -4448,10 +5101,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -4469,28 +5122,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>558</v>
+        <v>661</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>559</v>
+        <v>662</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>560</v>
+        <v>663</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>535</v>
+        <v>638</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>562</v>
+        <v>664</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>665</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -4500,10 +5153,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -4562,7 +5215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4624,17 +5277,17 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>563</v>
+        <v>666</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>564</v>
+        <v>667</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>197</v>
@@ -4643,7 +5296,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="54"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="20">
         <v>45423.0</v>
       </c>
@@ -4669,16 +5322,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>565</v>
+        <v>668</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>566</v>
+        <v>669</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>567</v>
+        <v>670</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>568</v>
+        <v>671</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>197</v>
@@ -4687,9 +5340,9 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="J3" s="54"/>
+        <v>672</v>
+      </c>
+      <c r="J3" s="56"/>
       <c r="K3" s="20">
         <v>45423.0</v>
       </c>
@@ -4715,16 +5368,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>570</v>
+        <v>673</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>571</v>
+        <v>674</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>572</v>
+        <v>675</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>197</v>
@@ -4733,9 +5386,9 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="J4" s="54"/>
+        <v>677</v>
+      </c>
+      <c r="J4" s="56"/>
       <c r="K4" s="20">
         <v>45423.0</v>
       </c>
@@ -4761,16 +5414,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>575</v>
+        <v>678</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>576</v>
+        <v>679</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>577</v>
+        <v>680</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>578</v>
+        <v>681</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>197</v>
@@ -4779,9 +5432,9 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="J5" s="54"/>
+        <v>682</v>
+      </c>
+      <c r="J5" s="56"/>
       <c r="K5" s="20">
         <v>45423.0</v>
       </c>
@@ -4807,16 +5460,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>580</v>
+        <v>683</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>581</v>
+        <v>684</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>582</v>
+        <v>685</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>568</v>
+        <v>671</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>197</v>
@@ -4825,9 +5478,9 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="J6" s="54"/>
+        <v>686</v>
+      </c>
+      <c r="J6" s="56"/>
       <c r="K6" s="20">
         <v>45423.0</v>
       </c>
@@ -4853,16 +5506,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>584</v>
+        <v>687</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>585</v>
+        <v>688</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>586</v>
+        <v>689</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>568</v>
+        <v>671</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>197</v>
@@ -4871,9 +5524,9 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="J7" s="54"/>
+        <v>686</v>
+      </c>
+      <c r="J7" s="56"/>
       <c r="K7" s="20">
         <v>45643.0</v>
       </c>
@@ -4899,16 +5552,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>587</v>
+        <v>690</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>588</v>
+        <v>691</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>589</v>
+        <v>692</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>590</v>
+        <v>693</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>197</v>
@@ -4917,9 +5570,9 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="J8" s="54"/>
+        <v>694</v>
+      </c>
+      <c r="J8" s="56"/>
       <c r="K8" s="20">
         <v>45643.0</v>
       </c>
@@ -4944,28 +5597,28 @@
       <c r="AB8" s="21"/>
     </row>
     <row r="9">
-      <c r="J9" s="54"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="J10" s="54"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="J11" s="54"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
       <c r="C12" s="23"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="J13" s="54"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="J14" s="54"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="20"/>
     </row>
   </sheetData>
@@ -4983,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5010,13 +5663,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -5031,7 +5684,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -5048,19 +5701,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>592</v>
+        <v>695</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>593</v>
+        <v>696</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5075,10 +5728,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -5096,19 +5749,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>595</v>
+        <v>698</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>596</v>
+        <v>699</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>597</v>
+        <v>700</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>568</v>
+        <v>671</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -5123,22 +5776,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>598</v>
+        <v>701</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>600</v>
+        <v>702</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>703</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>601</v>
+        <v>704</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>602</v>
+        <v>705</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -5147,62 +5800,62 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>606</v>
+        <v>708</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>709</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>607</v>
+        <v>710</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>608</v>
+        <v>711</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>602</v>
+        <v>705</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="59">
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>610</v>
+        <v>712</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>713</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>611</v>
+        <v>714</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>608</v>
+        <v>711</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>602</v>
+        <v>705</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5211,56 +5864,56 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>613</v>
+        <v>715</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>716</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>615</v>
+        <v>717</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>718</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="59">
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>617</v>
+        <v>719</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>720</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>618</v>
+        <v>721</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>619</v>
+        <v>722</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5269,56 +5922,56 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>621</v>
+        <v>723</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>724</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>615</v>
+        <v>725</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>718</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="59">
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>624</v>
+        <v>726</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>727</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>619</v>
+        <v>722</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5327,62 +5980,62 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>627</v>
+        <v>729</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>730</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>628</v>
+        <v>731</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>629</v>
+        <v>483</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="59">
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>632</v>
+        <v>733</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>734</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>629</v>
+        <v>483</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -5391,69 +6044,69 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>635</v>
+        <v>736</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>737</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>637</v>
+        <v>738</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>739</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="59">
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
+        <v>572</v>
+      </c>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>639</v>
+        <v>740</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>741</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>640</v>
+        <v>742</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>637</v>
+        <v>739</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -5462,72 +6115,72 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
+        <v>572</v>
+      </c>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>642</v>
+        <v>743</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>744</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>643</v>
+        <v>745</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>644</v>
+        <v>746</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="59">
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>645</v>
+        <v>747</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>646</v>
+        <v>748</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>647</v>
+        <v>749</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>649</v>
+        <v>751</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -5536,13 +6189,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -7519,13 +8172,15 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="20">
-        <v>45659.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -7544,13 +8199,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>218</v>
@@ -7564,13 +8219,15 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="20">
-        <v>45659.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -7589,13 +8246,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>218</v>
@@ -7609,13 +8266,15 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="20">
-        <v>45659.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -7634,13 +8293,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
@@ -7677,13 +8336,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
@@ -7720,13 +8379,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
@@ -7763,13 +8422,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
@@ -7806,13 +8465,13 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
@@ -7849,13 +8508,13 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
@@ -7892,13 +8551,13 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
@@ -7935,16 +8594,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>201</v>
@@ -7980,16 +8639,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>201</v>
@@ -8025,16 +8684,16 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>201</v>
@@ -8146,19 +8805,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>257</v>
+        <v>193</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -8172,7 +8831,9 @@
       <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -8190,61 +8851,23 @@
       <c r="AC2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="E4" s="17" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8252,13 +8875,15 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -8277,17 +8902,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8295,13 +8920,15 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -8320,17 +8947,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8338,13 +8965,15 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -8362,18 +8991,18 @@
       <c r="AC6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>273</v>
+      <c r="A7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>264</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -8381,13 +9010,15 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -8405,61 +9036,61 @@
       <c r="AC7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
+      <c r="A8" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="48">
+        <v>45666.0</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -8467,13 +9098,15 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -8491,74 +9124,108 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>283</v>
+      <c r="A10" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+        <v>261</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L10" s="49"/>
+        <v>45666.0</v>
+      </c>
+      <c r="L10" s="21"/>
       <c r="M10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
+      <c r="N10" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="K11" s="20"/>
-      <c r="M11" s="17"/>
+      <c r="A11" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>284</v>
+      <c r="A12" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8566,13 +9233,15 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -8590,65 +9259,23 @@
       <c r="AC12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>290</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -8656,13 +9283,15 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -8681,19 +9310,17 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>290</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -8701,13 +9328,15 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="20">
-        <v>45531.0</v>
+        <v>45666.0</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -8724,25 +9353,1029 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
     </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+    </row>
+    <row r="30">
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+    </row>
+    <row r="36">
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L40" s="21"/>
+      <c r="M40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="20">
+        <v>45666.0</v>
+      </c>
+      <c r="L41" s="21"/>
+      <c r="M41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:AF15">
+  <conditionalFormatting sqref="A2:C21 D2:E216 F2:J21 K2:K216 L2:L21 M2:N216 O2:AF21 A23:C216 F23:J216 L23:L216 O23:AF216">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$M11="proposed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:AC15">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$M11="accepted"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF10 A16:AF207">
-    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AC10 A16:AC46">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$M2="accepted"</formula>
+  <conditionalFormatting sqref="A1:AC401">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$M1="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
@@ -8812,19 +10445,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -8857,19 +10490,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>304</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -8902,19 +10533,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>304</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8947,19 +10576,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>304</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8992,19 +10619,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>304</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -9037,19 +10662,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>304</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -9080,6 +10703,721 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
     </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A11:AF16">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$M11="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:AC16">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$M11="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AF10 A17:AF208">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AC10 A17:AC47">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
+    <col customWidth="1" min="3" max="3" width="29.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AF199">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -9095,7 +11433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9107,6 +11445,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
+  </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
       <c r="A1" s="27" t="s">
@@ -9119,13 +11460,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -9136,11 +11477,11 @@
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -9157,55 +11498,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>322</v>
+        <v>419</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>420</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>325</v>
+        <v>423</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>331</v>
+        <v>429</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>332</v>
+        <v>430</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -9213,150 +11554,150 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>334</v>
+        <v>432</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>335</v>
+        <v>433</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>337</v>
+        <v>435</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>338</v>
+        <v>436</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>339</v>
+        <v>437</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>340</v>
+        <v>438</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>343</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>344</v>
+        <v>442</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>347</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>349</v>
+        <v>447</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>352</v>
+        <v>450</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>353</v>
+        <v>451</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>354</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>355</v>
+        <v>453</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>356</v>
+        <v>454</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>359</v>
+        <v>457</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>361</v>
+        <v>459</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>362</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>363</v>
+        <v>461</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>364</v>
+        <v>462</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>365</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>366</v>
+        <v>464</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>367</v>
+        <v>465</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>368</v>
+        <v>466</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>369</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
@@ -9365,7 +11706,7 @@
         <v>201</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -9397,22 +11738,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>201</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>378</v>
+        <v>476</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -9424,19 +11765,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>380</v>
+        <v>478</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>381</v>
+        <v>479</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -9447,23 +11788,48 @@
       </c>
     </row>
     <row r="20">
-      <c r="K20" s="20"/>
+      <c r="A20" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="K20" s="20">
+        <v>45671.0</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>262</v>
+        <v>357</v>
       </c>
       <c r="K21" s="20">
         <v>45643.0</v>
@@ -9497,7 +11863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9560,13 +11926,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>196</v>
@@ -9608,17 +11974,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>389</v>
+        <v>492</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -9654,17 +12020,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>394</v>
+        <v>497</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -9700,17 +12066,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -9746,17 +12112,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -9792,13 +12158,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>403</v>
+        <v>506</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>196</v>
@@ -9840,17 +12206,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>405</v>
+        <v>508</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>406</v>
+        <v>509</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -9886,17 +12252,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9932,17 +12298,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>411</v>
+        <v>514</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>412</v>
+        <v>515</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -9978,13 +12344,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>415</v>
+        <v>518</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>416</v>
+        <v>519</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>196</v>
@@ -10026,16 +12392,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>417</v>
+        <v>520</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>418</v>
+        <v>521</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>419</v>
+        <v>522</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>420</v>
+        <v>523</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -10066,17 +12432,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>421</v>
+        <v>524</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>422</v>
+        <v>525</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>423</v>
+        <v>526</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>420</v>
+        <v>523</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -10112,17 +12478,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>425</v>
+        <v>528</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>420</v>
+        <v>523</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -10158,13 +12524,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>427</v>
+        <v>530</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>429</v>
+        <v>532</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>196</v>
@@ -10206,17 +12572,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>431</v>
+        <v>534</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>432</v>
+        <v>535</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -10252,17 +12618,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>434</v>
+        <v>537</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -10298,17 +12664,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>438</v>
+        <v>541</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>439</v>
+        <v>542</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -10344,17 +12710,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>442</v>
+        <v>545</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -10390,13 +12756,13 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>443</v>
+        <v>546</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>547</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>445</v>
+        <v>548</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>196</v>
@@ -10438,17 +12804,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>446</v>
+        <v>549</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -10484,17 +12850,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>451</v>
+        <v>554</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>452</v>
+        <v>555</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -10530,17 +12896,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>455</v>
+        <v>558</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -10576,17 +12942,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>456</v>
+        <v>559</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>457</v>
+        <v>560</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -10659,7 +13025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10683,13 +13049,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -10700,11 +13066,11 @@
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -10721,13 +13087,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>461</v>
+        <v>562</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>564</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10737,7 +13103,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -10753,7 +13119,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>463</v>
+        <v>566</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -10778,19 +13144,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>465</v>
+        <v>568</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>466</v>
+        <v>569</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>467</v>
+        <v>570</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10805,10 +13171,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -10830,13 +13196,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>470</v>
+        <v>573</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>471</v>
+        <v>574</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -10855,10 +13221,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -10880,13 +13246,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>473</v>
+        <v>576</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -10905,10 +13271,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -11013,334 +13379,4 @@
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.63"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20">
-        <v>44733.0</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:AB10">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$M2="accepted"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB10">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$M2="proposed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="O2"/>
-    <hyperlink r:id="rId2" ref="O3"/>
-    <hyperlink r:id="rId3" ref="O4"/>
-    <hyperlink r:id="rId4" ref="O5"/>
-    <hyperlink r:id="rId5" ref="O6"/>
-  </hyperlinks>
-  <drawing r:id="rId6"/>
-</worksheet>
 </file>
--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="755">
   <si>
     <t>Term</t>
   </si>
@@ -541,6 +541,12 @@
     <t>A contract between a government and consumers</t>
   </si>
   <si>
+    <t>B2GContract</t>
+  </si>
+  <si>
+    <t>C2GContract</t>
+  </si>
+  <si>
     <t>ContractByDomain</t>
   </si>
   <si>
@@ -920,6 +926,9 @@
   </si>
   <si>
     <t>Contract Activation Status</t>
+  </si>
+  <si>
+    <t>Status associated with activation of a contract i.e. whether its terms are active and are required to be performed</t>
   </si>
   <si>
     <t>ContractActive</t>
@@ -4169,16 +4178,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -4196,10 +4205,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4217,16 +4226,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>585</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -4235,7 +4244,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -4246,10 +4255,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -4267,16 +4276,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -4285,7 +4294,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -4296,10 +4305,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -4317,16 +4326,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>593</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>590</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -4335,7 +4344,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -4346,10 +4355,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4367,16 +4376,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -4385,7 +4394,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -4396,10 +4405,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4499,29 +4508,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -4531,10 +4540,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4552,26 +4561,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -4581,10 +4590,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -4602,26 +4611,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -4631,10 +4640,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -4652,29 +4661,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -4684,10 +4693,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4705,29 +4714,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -4737,10 +4746,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4758,28 +4767,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4789,10 +4798,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4810,28 +4819,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4841,10 +4850,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4862,28 +4871,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4893,10 +4902,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4914,28 +4923,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4945,10 +4954,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4966,28 +4975,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -4997,10 +5006,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -5018,28 +5027,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -5049,10 +5058,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -5070,28 +5079,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -5101,10 +5110,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -5122,28 +5131,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -5153,10 +5162,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -5277,20 +5286,20 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5322,25 +5331,25 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="20">
@@ -5368,25 +5377,25 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="20">
@@ -5414,25 +5423,25 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="20">
@@ -5460,25 +5469,25 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="20">
@@ -5506,25 +5515,25 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="23" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="20">
@@ -5552,25 +5561,25 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="23" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="20">
@@ -5663,13 +5672,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -5684,7 +5693,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -5701,19 +5710,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5728,10 +5737,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -5749,19 +5758,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -5776,22 +5785,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -5800,30 +5809,30 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>708</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>705</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
@@ -5832,30 +5841,30 @@
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>711</v>
-      </c>
       <c r="I10" s="23" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5864,27 +5873,27 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
@@ -5893,27 +5902,27 @@
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5922,27 +5931,27 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
@@ -5951,27 +5960,27 @@
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5980,30 +5989,30 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
@@ -6012,30 +6021,30 @@
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>735</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>732</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -6044,27 +6053,27 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
@@ -6073,13 +6082,13 @@
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
@@ -6097,16 +6106,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>742</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>739</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -6115,13 +6124,13 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
@@ -6139,16 +6148,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
@@ -6157,30 +6166,30 @@
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -6189,13 +6198,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7524,7 +7533,9 @@
       <c r="AC28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="17"/>
+      <c r="A29" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -7532,109 +7543,47 @@
       <c r="K29" s="20"/>
       <c r="L29" s="46"/>
       <c r="M29" s="17"/>
+      <c r="N29" s="17" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="B32" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="20">
-        <v>45643.0</v>
-      </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>25</v>
@@ -7645,9 +7594,9 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="20">
-        <v>45531.0</v>
-      </c>
-      <c r="L32" s="20"/>
+        <v>45643.0</v>
+      </c>
+      <c r="L32" s="46"/>
       <c r="M32" s="17" t="s">
         <v>21</v>
       </c>
@@ -7670,16 +7619,16 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>25</v>
@@ -7715,16 +7664,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>25</v>
@@ -7737,7 +7686,7 @@
       <c r="K34" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L34" s="46"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="17" t="s">
         <v>21</v>
       </c>
@@ -7760,16 +7709,16 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>25</v>
@@ -7782,14 +7731,12 @@
       <c r="K35" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L35" s="20"/>
+      <c r="L35" s="46"/>
       <c r="M35" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N35" s="21"/>
-      <c r="O35" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -7805,13 +7752,105 @@
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
     </row>
+    <row r="36">
+      <c r="A36" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L36" s="46"/>
+      <c r="M36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20">
+        <v>45531.0</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="21"/>
+      <c r="O37" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF224">
+  <conditionalFormatting sqref="A2:AF226">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AC63">
+  <conditionalFormatting sqref="A2:AC65">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$M2="accepted"</formula>
     </cfRule>
@@ -7890,19 +7929,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -7935,17 +7974,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -7978,17 +8017,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8021,17 +8060,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8064,17 +8103,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8107,23 +8146,23 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="20">
@@ -8152,19 +8191,19 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -8179,7 +8218,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -8199,19 +8238,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -8226,7 +8265,7 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -8246,19 +8285,19 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -8273,7 +8312,7 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -8293,17 +8332,17 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -8336,17 +8375,17 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8379,17 +8418,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -8422,17 +8461,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -8465,17 +8504,17 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -8508,17 +8547,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -8551,17 +8590,17 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -8594,19 +8633,19 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -8639,19 +8678,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>250</v>
-      </c>
       <c r="E19" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -8684,19 +8723,19 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="21"/>
@@ -8805,19 +8844,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -8855,19 +8894,19 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8882,7 +8921,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -8902,17 +8941,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -8927,7 +8966,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -8947,17 +8986,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -8972,7 +9011,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -8992,17 +9031,17 @@
     </row>
     <row r="7">
       <c r="A7" s="47" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -9017,7 +9056,7 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
@@ -9037,17 +9076,17 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -9080,17 +9119,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9105,7 +9144,7 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -9125,17 +9164,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -9150,7 +9189,7 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -9170,17 +9209,17 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -9195,7 +9234,7 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -9215,17 +9254,17 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -9240,7 +9279,7 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -9263,19 +9302,19 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9290,7 +9329,7 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -9310,17 +9349,17 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9335,7 +9374,7 @@
         <v>21</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -9355,17 +9394,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9380,7 +9419,7 @@
         <v>21</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -9400,23 +9439,23 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="20">
@@ -9427,7 +9466,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
@@ -9447,17 +9486,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -9472,7 +9511,7 @@
         <v>21</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
@@ -9495,17 +9534,19 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20" s="21"/>
+        <v>300</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="D20" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -9520,7 +9561,7 @@
         <v>21</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
@@ -9540,23 +9581,23 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="20">
@@ -9567,7 +9608,7 @@
         <v>21</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
@@ -9587,23 +9628,23 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="17" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="20">
@@ -9614,7 +9655,7 @@
         <v>21</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -9637,19 +9678,19 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -9664,7 +9705,7 @@
         <v>21</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
@@ -9684,17 +9725,17 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -9709,7 +9750,7 @@
         <v>21</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
@@ -9729,17 +9770,17 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -9754,7 +9795,7 @@
         <v>21</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
@@ -9774,17 +9815,17 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -9799,7 +9840,7 @@
         <v>21</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -9819,17 +9860,17 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -9844,7 +9885,7 @@
         <v>21</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -9864,17 +9905,17 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -9889,7 +9930,7 @@
         <v>21</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
@@ -9912,19 +9953,19 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -9939,7 +9980,7 @@
         <v>21</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
@@ -9959,17 +10000,17 @@
     </row>
     <row r="32">
       <c r="A32" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -9984,7 +10025,7 @@
         <v>21</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
@@ -10004,17 +10045,17 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -10029,7 +10070,7 @@
         <v>21</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
@@ -10049,17 +10090,17 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -10074,7 +10115,7 @@
         <v>21</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
@@ -10094,17 +10135,17 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -10119,7 +10160,7 @@
         <v>21</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
@@ -10142,19 +10183,19 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -10169,7 +10210,7 @@
         <v>21</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
@@ -10189,17 +10230,17 @@
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -10214,7 +10255,7 @@
         <v>21</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
@@ -10234,17 +10275,17 @@
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -10259,7 +10300,7 @@
         <v>21</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
@@ -10279,17 +10320,17 @@
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -10304,7 +10345,7 @@
         <v>21</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
@@ -10324,17 +10365,17 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="21"/>
@@ -10349,7 +10390,7 @@
         <v>21</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
@@ -10445,13 +10486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10490,17 +10531,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10533,17 +10574,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -10576,17 +10617,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -10619,17 +10660,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -10662,17 +10703,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -10705,17 +10746,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -10748,17 +10789,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -10791,17 +10832,17 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -10847,19 +10888,19 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -10892,17 +10933,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -10935,17 +10976,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -10978,17 +11019,17 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -11021,17 +11062,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -11150,19 +11191,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -11195,19 +11236,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -11240,19 +11281,19 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>402</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -11285,19 +11326,19 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -11330,19 +11371,19 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -11375,19 +11416,19 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -11460,13 +11501,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -11481,7 +11522,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -11498,55 +11539,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -11554,159 +11595,159 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -11738,22 +11779,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -11765,19 +11806,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -11789,19 +11830,19 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F20" s="21"/>
       <c r="K20" s="20">
@@ -11812,24 +11853,24 @@
         <v>21</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K21" s="20">
         <v>45643.0</v>
@@ -11926,19 +11967,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -11974,17 +12015,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -12020,17 +12061,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -12066,17 +12107,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -12112,17 +12153,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -12158,19 +12199,19 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -12206,17 +12247,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -12252,17 +12293,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -12298,17 +12339,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -12344,19 +12385,19 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -12392,16 +12433,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -12432,17 +12473,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -12478,17 +12519,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -12524,19 +12565,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -12572,17 +12613,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -12618,17 +12659,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -12664,17 +12705,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -12710,17 +12751,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -12756,19 +12797,19 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -12804,17 +12845,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -12850,17 +12891,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -12896,17 +12937,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -12942,17 +12983,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -13049,13 +13090,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -13070,7 +13111,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -13087,13 +13128,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -13103,7 +13144,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -13119,7 +13160,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -13144,19 +13185,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -13171,10 +13212,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -13196,13 +13237,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -13221,10 +13262,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -13246,13 +13287,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -13271,10 +13312,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -589,7 +589,7 @@
     <t>ServiceLevelAgreement</t>
   </si>
   <si>
-    <t>Service Legvel Agreement (SLA)</t>
+    <t>Service Level Agreement (SLA)</t>
   </si>
   <si>
     <t>A contract regarding the provision of a service which outlines the acceptable metrics and performance of the service for the consumer</t>
@@ -775,10 +775,10 @@
     <t>ContractFulfiled</t>
   </si>
   <si>
-    <t>Contract Fulfiled</t>
-  </si>
-  <si>
-    <t>All requirements of the contract have been fulfiled</t>
+    <t>Contract Fulfilled</t>
+  </si>
+  <si>
+    <t>All requirements of the contract have been fulfilled</t>
   </si>
   <si>
     <t>dpv:ContractFulfilmentState</t>
@@ -790,16 +790,16 @@
     <t>Contract Breached</t>
   </si>
   <si>
-    <t>One or more requirements of a contract have not been fulfiled or have been breached and the resulting implications are considered a breach of contract</t>
+    <t>One or more requirements of a contract have not been fulfilled or have been breached and the resulting implications are considered a breach of contract</t>
   </si>
   <si>
     <t>ContractUnfulfiled</t>
   </si>
   <si>
-    <t>Contract Unfulfiled</t>
-  </si>
-  <si>
-    <t>One or more requirements of a contract have not been fulfiled or have not been fulfiled where this is not considered a breach of contract</t>
+    <t>Contract Unfulfilled</t>
+  </si>
+  <si>
+    <t>One or more requirements of a contract have not been fulfilled or have not been fulfilled where this is not considered a breach of contract</t>
   </si>
   <si>
     <t>ContractPreparationStatus</t>
@@ -910,7 +910,7 @@
     <t>Status representing contract has been signed by the indicated signing party</t>
   </si>
   <si>
-    <t xml:space="preserve">The signing party can be expressed using dpv:hasParty with the status along with metadata such as a timestamp, or the status can be used to list whether each party in the contract has signed or not e.g. it is reviewing the contract </t>
+    <t>The signing party can be expressed using dpv:hasParty with the status along with metadata such as a timestamp, or the status can be used to list whether each party in the contract has signed or not e.g. it is reviewing the contract</t>
   </si>
   <si>
     <t>ContractFullyExecuted</t>
@@ -943,7 +943,7 @@
     <t>dpv:ContractActivationStatus</t>
   </si>
   <si>
-    <t>A contract being active only refers to its terms now being required to be fulfiled, while dpv:ContractBeingPerformed states that they are being performed</t>
+    <t>A contract being active only refers to its terms now being required to be fulfilled, while dpv:ContractBeingPerformed states that they are being performed</t>
   </si>
   <si>
     <t>ContractInactive</t>
@@ -955,7 +955,7 @@
     <t>Status representing contract that has been fully executed and whose terms are not yet active i.e. they need to be performed at a later time</t>
   </si>
   <si>
-    <t>An example of an inactive contract is where its terms need to be fulfiled at a later date, at which point the contract will become active</t>
+    <t>An example of an inactive contract is where its terms need to be fulfilled at a later date, at which point the contract will become active</t>
   </si>
   <si>
     <t>ContractPerformanceStatus</t>
@@ -1033,7 +1033,7 @@
     <t>Status representing reaching the expiry defined in the contract, such as when the stated duration or the stated obligations have been completed</t>
   </si>
   <si>
-    <t>Status representing contract being breached where its terms are not fulfiled or are violated with legal consequences</t>
+    <t>Status representing contract being breached where its terms are not fulfilled or are violated with legal consequences</t>
   </si>
   <si>
     <t>ContractDisputed</t>
@@ -1054,7 +1054,7 @@
     <t>Status associated with fulfilment of a contract</t>
   </si>
   <si>
-    <t>Status representing contract where all its terms have been fulfiled in a manner that does not constitute a violation or breach of the contract</t>
+    <t>Status representing contract where all its terms have been fulfilled in a manner that does not constitute a violation or breach of the contract</t>
   </si>
   <si>
     <t>dpv:ContractFulfilmentStatus</t>
@@ -1063,19 +1063,19 @@
     <t>ContractPartiallyFulfiled</t>
   </si>
   <si>
-    <t>Contract Partially Fulfiled</t>
-  </si>
-  <si>
-    <t>Status representing contract where some of its terms have been fulfiled, and others are yet to be fulfiled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
+    <t>Contract Partially Fulfilled</t>
+  </si>
+  <si>
+    <t>Status representing contract where some of its terms have been fulfilled, and others are yet to be fulfilled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
   </si>
   <si>
     <t>ContractNotFulfiled</t>
   </si>
   <si>
-    <t>Contract Not Fulfiled</t>
-  </si>
-  <si>
-    <t>Status representing contract where none of its terms have been fulfiled in a manner that does not constitutea violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
+    <t>Contract Not Fulfilled</t>
+  </si>
+  <si>
+    <t>Status representing contract where none of its terms have been fulfilled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
   </si>
   <si>
     <t>ContractViolated</t>
@@ -1084,7 +1084,7 @@
     <t>Contract Violated</t>
   </si>
   <si>
-    <t>Status representing contract where one or more terms have not been fulfiled or have been fulfiled, where either is considered a violation of the terms</t>
+    <t>Status representing contract where one or more terms have not been fulfilled or have been fulfilled, where either is considered a violation of the terms</t>
   </si>
   <si>
     <t>ContractualClause</t>
@@ -1093,7 +1093,7 @@
     <t>Contractual Clause</t>
   </si>
   <si>
-    <t xml:space="preserve">A part or component within a contract that outlines its specifics </t>
+    <t>A part or component within a contract that outlines its specifics</t>
   </si>
   <si>
     <t>ContractPreamble</t>
@@ -1183,10 +1183,10 @@
     <t>ContractualClauseFulfiled</t>
   </si>
   <si>
-    <t>Contractual Clause Fulfiled</t>
-  </si>
-  <si>
-    <t>Status indicating the terms of the contractual clause are fulfiled i.e. they have been succesfully completed without violation</t>
+    <t>Contractual Clause Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating the terms of the contractual clause are fulfilled i.e. they have been successfully completed without violation</t>
   </si>
   <si>
     <t>dpv:ContractualClauseFulfilmentStatus</t>
@@ -1195,10 +1195,10 @@
     <t>ContractualClausePartiallyFulfiled</t>
   </si>
   <si>
-    <t>Contractual Clause Partially Fulfiled</t>
-  </si>
-  <si>
-    <t>Status indicating some of the terms of the contractual clause have been fulfiled, and others have not yet been fulfiled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
+    <t>Contractual Clause Partially Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating some of the terms of the contractual clause have been fulfilled, and others have not yet been fulfilled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
   </si>
   <si>
     <t>ContractualClauseViolated</t>
@@ -1213,10 +1213,10 @@
     <t>ContractualClauseNotFulfiled</t>
   </si>
   <si>
-    <t>Contractual Clause Unfulfiled</t>
-  </si>
-  <si>
-    <t>Status indicating the terms of the contractual clause have not yet been fulfiled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
+    <t>Contractual Clause Unfulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating the terms of the contractual clause have not yet been fulfilled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
   </si>
   <si>
     <t>ContractControl</t>
@@ -1345,7 +1345,7 @@
     <t>dct:modified</t>
   </si>
   <si>
-    <t>Indicates the date when the contract was modified e.g. as part of the negotation process</t>
+    <t>Indicates the date when the contract was modified e.g. as part of the negotiation process</t>
   </si>
   <si>
     <t>dct:dateAccepted</t>
@@ -1399,7 +1399,7 @@
     <t>provenance</t>
   </si>
   <si>
-    <t>Indicates the provenance of the contract e.g. previous versions in a negotation process</t>
+    <t>Indicates the provenance of the contract e.g. previous versions in a negotiation process</t>
   </si>
   <si>
     <t>The PROV ontology can be useful to represent provenance information associated with activities and artefacts</t>
@@ -1573,7 +1573,7 @@
     <t>Legal ObligationOngoing</t>
   </si>
   <si>
-    <t>Status where the legal obligation is being fulfiled</t>
+    <t>Status where the legal obligation is being fulfilled</t>
   </si>
   <si>
     <t>LegalObligationPending</t>
@@ -2107,7 +2107,7 @@
     <t>The state where consent has been deemed to be invalid</t>
   </si>
   <si>
-    <t xml:space="preserve">An example of this state is where an investigating authority or a court finds the collected consent did not meet requirements, and 'invalidates' both prior and future uses of it to carry out processing </t>
+    <t>An example of this state is where an investigating authority or a court finds the collected consent did not meet requirements, and 'invalidates' both prior and future uses of it to carry out processing</t>
   </si>
   <si>
     <r>
@@ -2319,7 +2319,7 @@
     <t>Specific a control associated with consent</t>
   </si>
   <si>
-    <t xml:space="preserve">Deprecated </t>
+    <t>Deprecated</t>
   </si>
   <si>
     <t>hasExpiry</t>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="LegalBasis" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="ContractTypes" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ContractStatus_old" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="DONOTUSE_ContractStatus" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ContractStatus" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ContractClause" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="ContractControl" sheetId="6" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="759">
   <si>
     <t>Term</t>
   </si>
@@ -1054,13 +1054,19 @@
     <t>Status associated with fulfilment of a contract</t>
   </si>
   <si>
+    <t>ContractFulfilled</t>
+  </si>
+  <si>
     <t>Status representing contract where all its terms have been fulfilled in a manner that does not constitute a violation or breach of the contract</t>
   </si>
   <si>
     <t>dpv:ContractFulfilmentStatus</t>
   </si>
   <si>
-    <t>ContractPartiallyFulfiled</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Arthit Suriyawongkul</t>
+  </si>
+  <si>
+    <t>ContractPartiallyFulfilled</t>
   </si>
   <si>
     <t>Contract Partially Fulfilled</t>
@@ -1069,7 +1075,7 @@
     <t>Status representing contract where some of its terms have been fulfilled, and others are yet to be fulfilled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
   </si>
   <si>
-    <t>ContractNotFulfiled</t>
+    <t>ContractNotFulfilled</t>
   </si>
   <si>
     <t>Contract Not Fulfilled</t>
@@ -1180,7 +1186,10 @@
     <t>Status associated with fulfilment of a contractual clause</t>
   </si>
   <si>
-    <t>ContractualClauseFulfiled</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog</t>
+  </si>
+  <si>
+    <t>ContractualClauseFulfilled</t>
   </si>
   <si>
     <t>Contractual Clause Fulfilled</t>
@@ -1192,7 +1201,10 @@
     <t>dpv:ContractualClauseFulfilmentStatus</t>
   </si>
   <si>
-    <t>ContractualClausePartiallyFulfiled</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Arthit Suriyawongkul</t>
+  </si>
+  <si>
+    <t>ContractualClausePartiallyFulfilled</t>
   </si>
   <si>
     <t>Contractual Clause Partially Fulfilled</t>
@@ -1210,7 +1222,7 @@
     <t>Status indicating the terms of the contractual clause have been violated</t>
   </si>
   <si>
-    <t>ContractualClauseNotFulfiled</t>
+    <t>ContractualClauseNotFulfilled</t>
   </si>
   <si>
     <t>Contractual Clause Unfulfilled</t>
@@ -4178,16 +4190,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -4205,10 +4217,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4226,16 +4238,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -4244,7 +4256,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -4255,10 +4267,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -4276,16 +4288,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -4294,7 +4306,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -4305,10 +4317,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -4326,16 +4338,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>597</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -4344,7 +4356,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -4355,10 +4367,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4376,16 +4388,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -4394,7 +4406,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -4405,10 +4417,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4508,14 +4520,14 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>198</v>
@@ -4527,10 +4539,10 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -4540,10 +4552,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4561,26 +4573,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -4590,10 +4602,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -4611,26 +4623,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -4640,10 +4652,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -4661,29 +4673,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -4693,10 +4705,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4714,29 +4726,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>621</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -4746,10 +4758,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4767,28 +4779,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4798,10 +4810,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4819,28 +4831,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4850,10 +4862,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4871,28 +4883,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4902,10 +4914,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4923,28 +4935,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4954,10 +4966,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4975,28 +4987,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -5006,10 +5018,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -5027,28 +5039,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -5058,10 +5070,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -5079,28 +5091,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -5110,10 +5122,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -5131,28 +5143,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -5162,10 +5174,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -5286,17 +5298,17 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>199</v>
@@ -5331,16 +5343,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>199</v>
@@ -5349,7 +5361,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="20">
@@ -5377,16 +5389,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>199</v>
@@ -5395,7 +5407,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="20">
@@ -5423,16 +5435,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>199</v>
@@ -5441,7 +5453,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="20">
@@ -5469,16 +5481,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>199</v>
@@ -5487,7 +5499,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="20">
@@ -5515,16 +5527,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>199</v>
@@ -5533,7 +5545,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="23" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="20">
@@ -5561,16 +5573,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>199</v>
@@ -5579,7 +5591,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="23" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="20">
@@ -5672,13 +5684,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -5693,7 +5705,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -5710,19 +5722,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5737,10 +5749,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -5758,19 +5770,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -5785,22 +5797,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -5809,30 +5821,30 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>712</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>708</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
@@ -5841,30 +5853,30 @@
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5873,27 +5885,27 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
@@ -5902,27 +5914,27 @@
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5931,27 +5943,27 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
@@ -5960,27 +5972,27 @@
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>734</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>729</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>730</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5989,30 +6001,30 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
@@ -6021,30 +6033,30 @@
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -6053,27 +6065,27 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
@@ -6082,13 +6094,13 @@
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
@@ -6106,16 +6118,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -6124,13 +6136,13 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
@@ -6148,16 +6160,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
@@ -6166,30 +6178,30 @@
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -6198,13 +6210,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -10230,152 +10242,95 @@
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>250</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>344</v>
+      </c>
       <c r="E38" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+        <v>345</v>
+      </c>
       <c r="K38" s="20">
         <v>45666.0</v>
       </c>
-      <c r="L38" s="21"/>
+      <c r="L38" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M38" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
       <c r="K39" s="20">
         <v>45666.0</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M39" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>352</v>
+      </c>
       <c r="E40" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+        <v>345</v>
+      </c>
       <c r="K40" s="20">
         <v>45666.0</v>
       </c>
-      <c r="L40" s="21"/>
+      <c r="L40" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M40" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="21"/>
@@ -10486,13 +10441,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10531,17 +10486,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10574,17 +10529,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -10617,17 +10572,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -10660,17 +10615,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -10703,17 +10658,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -10746,17 +10701,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -10789,17 +10744,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -10832,17 +10787,17 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -10888,13 +10843,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>203</v>
@@ -10914,7 +10869,9 @@
       <c r="M12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -10933,103 +10890,69 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>390</v>
+      </c>
       <c r="E13" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+        <v>391</v>
+      </c>
       <c r="K13" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
       <c r="K14" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -11043,7 +10966,9 @@
       <c r="M15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -11062,46 +10987,29 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>401</v>
+      </c>
       <c r="E16" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+        <v>391</v>
+      </c>
       <c r="K16" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>392</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A11:AF16">
@@ -11191,16 +11099,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>199</v>
@@ -11236,16 +11144,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>199</v>
@@ -11281,16 +11189,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>199</v>
@@ -11326,16 +11234,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>199</v>
@@ -11371,16 +11279,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>199</v>
@@ -11416,16 +11324,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>199</v>
@@ -11501,13 +11409,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -11522,7 +11430,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -11539,55 +11447,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -11595,150 +11503,150 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
@@ -11747,7 +11655,7 @@
         <v>203</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -11779,22 +11687,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>203</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -11806,19 +11714,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -11830,19 +11738,19 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F20" s="21"/>
       <c r="K20" s="20">
@@ -11853,24 +11761,24 @@
         <v>21</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K21" s="20">
         <v>45643.0</v>
@@ -11967,13 +11875,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>198</v>
@@ -12015,17 +11923,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -12061,17 +11969,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -12107,17 +12015,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -12153,17 +12061,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -12199,13 +12107,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>198</v>
@@ -12247,17 +12155,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -12293,17 +12201,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -12339,17 +12247,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -12385,13 +12293,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>198</v>
@@ -12433,16 +12341,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -12473,17 +12381,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -12519,17 +12427,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -12565,13 +12473,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>198</v>
@@ -12613,17 +12521,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -12659,17 +12567,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -12705,17 +12613,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -12751,17 +12659,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -12797,13 +12705,13 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>198</v>
@@ -12845,17 +12753,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -12891,17 +12799,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -12937,17 +12845,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -12983,17 +12891,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -13090,13 +12998,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -13111,7 +13019,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -13128,13 +13036,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -13144,7 +13052,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -13160,7 +13068,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -13185,19 +13093,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -13212,10 +13120,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -13237,13 +13145,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -13262,10 +13170,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -13287,13 +13195,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -13312,10 +13220,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>

--- a/code/vocab_csv/legal_basis.xlsx
+++ b/code/vocab_csv/legal_basis.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="LegalBasis" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="ContractTypes" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ContractStatus_old" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="DONOTUSE_ContractStatus" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ContractStatus" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ContractClause" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="ContractControl" sheetId="6" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="759">
   <si>
     <t>Term</t>
   </si>
@@ -589,7 +589,7 @@
     <t>ServiceLevelAgreement</t>
   </si>
   <si>
-    <t>Service Legvel Agreement (SLA)</t>
+    <t>Service Level Agreement (SLA)</t>
   </si>
   <si>
     <t>A contract regarding the provision of a service which outlines the acceptable metrics and performance of the service for the consumer</t>
@@ -775,10 +775,10 @@
     <t>ContractFulfiled</t>
   </si>
   <si>
-    <t>Contract Fulfiled</t>
-  </si>
-  <si>
-    <t>All requirements of the contract have been fulfiled</t>
+    <t>Contract Fulfilled</t>
+  </si>
+  <si>
+    <t>All requirements of the contract have been fulfilled</t>
   </si>
   <si>
     <t>dpv:ContractFulfilmentState</t>
@@ -790,16 +790,16 @@
     <t>Contract Breached</t>
   </si>
   <si>
-    <t>One or more requirements of a contract have not been fulfiled or have been breached and the resulting implications are considered a breach of contract</t>
+    <t>One or more requirements of a contract have not been fulfilled or have been breached and the resulting implications are considered a breach of contract</t>
   </si>
   <si>
     <t>ContractUnfulfiled</t>
   </si>
   <si>
-    <t>Contract Unfulfiled</t>
-  </si>
-  <si>
-    <t>One or more requirements of a contract have not been fulfiled or have not been fulfiled where this is not considered a breach of contract</t>
+    <t>Contract Unfulfilled</t>
+  </si>
+  <si>
+    <t>One or more requirements of a contract have not been fulfilled or have not been fulfilled where this is not considered a breach of contract</t>
   </si>
   <si>
     <t>ContractPreparationStatus</t>
@@ -910,7 +910,7 @@
     <t>Status representing contract has been signed by the indicated signing party</t>
   </si>
   <si>
-    <t xml:space="preserve">The signing party can be expressed using dpv:hasParty with the status along with metadata such as a timestamp, or the status can be used to list whether each party in the contract has signed or not e.g. it is reviewing the contract </t>
+    <t>The signing party can be expressed using dpv:hasParty with the status along with metadata such as a timestamp, or the status can be used to list whether each party in the contract has signed or not e.g. it is reviewing the contract</t>
   </si>
   <si>
     <t>ContractFullyExecuted</t>
@@ -943,7 +943,7 @@
     <t>dpv:ContractActivationStatus</t>
   </si>
   <si>
-    <t>A contract being active only refers to its terms now being required to be fulfiled, while dpv:ContractBeingPerformed states that they are being performed</t>
+    <t>A contract being active only refers to its terms now being required to be fulfilled, while dpv:ContractBeingPerformed states that they are being performed</t>
   </si>
   <si>
     <t>ContractInactive</t>
@@ -955,7 +955,7 @@
     <t>Status representing contract that has been fully executed and whose terms are not yet active i.e. they need to be performed at a later time</t>
   </si>
   <si>
-    <t>An example of an inactive contract is where its terms need to be fulfiled at a later date, at which point the contract will become active</t>
+    <t>An example of an inactive contract is where its terms need to be fulfilled at a later date, at which point the contract will become active</t>
   </si>
   <si>
     <t>ContractPerformanceStatus</t>
@@ -1033,7 +1033,7 @@
     <t>Status representing reaching the expiry defined in the contract, such as when the stated duration or the stated obligations have been completed</t>
   </si>
   <si>
-    <t>Status representing contract being breached where its terms are not fulfiled or are violated with legal consequences</t>
+    <t>Status representing contract being breached where its terms are not fulfilled or are violated with legal consequences</t>
   </si>
   <si>
     <t>ContractDisputed</t>
@@ -1054,28 +1054,34 @@
     <t>Status associated with fulfilment of a contract</t>
   </si>
   <si>
-    <t>Status representing contract where all its terms have been fulfiled in a manner that does not constitute a violation or breach of the contract</t>
+    <t>ContractFulfilled</t>
+  </si>
+  <si>
+    <t>Status representing contract where all its terms have been fulfilled in a manner that does not constitute a violation or breach of the contract</t>
   </si>
   <si>
     <t>dpv:ContractFulfilmentStatus</t>
   </si>
   <si>
-    <t>ContractPartiallyFulfiled</t>
-  </si>
-  <si>
-    <t>Contract Partially Fulfiled</t>
-  </si>
-  <si>
-    <t>Status representing contract where some of its terms have been fulfiled, and others are yet to be fulfiled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
-  </si>
-  <si>
-    <t>ContractNotFulfiled</t>
-  </si>
-  <si>
-    <t>Contract Not Fulfiled</t>
-  </si>
-  <si>
-    <t>Status representing contract where none of its terms have been fulfiled in a manner that does not constitutea violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Arthit Suriyawongkul</t>
+  </si>
+  <si>
+    <t>ContractPartiallyFulfilled</t>
+  </si>
+  <si>
+    <t>Contract Partially Fulfilled</t>
+  </si>
+  <si>
+    <t>Status representing contract where some of its terms have been fulfilled, and others are yet to be fulfilled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
+  </si>
+  <si>
+    <t>ContractNotFulfilled</t>
+  </si>
+  <si>
+    <t>Contract Not Fulfilled</t>
+  </si>
+  <si>
+    <t>Status representing contract where none of its terms have been fulfilled in a manner that does not constitute a violation or breach of the contract i.e. there is still time and opportunity to complete the terms</t>
   </si>
   <si>
     <t>ContractViolated</t>
@@ -1084,7 +1090,7 @@
     <t>Contract Violated</t>
   </si>
   <si>
-    <t>Status representing contract where one or more terms have not been fulfiled or have been fulfiled, where either is considered a violation of the terms</t>
+    <t>Status representing contract where one or more terms have not been fulfilled or have been fulfilled, where either is considered a violation of the terms</t>
   </si>
   <si>
     <t>ContractualClause</t>
@@ -1093,7 +1099,7 @@
     <t>Contractual Clause</t>
   </si>
   <si>
-    <t xml:space="preserve">A part or component within a contract that outlines its specifics </t>
+    <t>A part or component within a contract that outlines its specifics</t>
   </si>
   <si>
     <t>ContractPreamble</t>
@@ -1180,25 +1186,31 @@
     <t>Status associated with fulfilment of a contractual clause</t>
   </si>
   <si>
-    <t>ContractualClauseFulfiled</t>
-  </si>
-  <si>
-    <t>Contractual Clause Fulfiled</t>
-  </si>
-  <si>
-    <t>Status indicating the terms of the contractual clause are fulfiled i.e. they have been succesfully completed without violation</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog</t>
+  </si>
+  <si>
+    <t>ContractualClauseFulfilled</t>
+  </si>
+  <si>
+    <t>Contractual Clause Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating the terms of the contractual clause are fulfilled i.e. they have been successfully completed without violation</t>
   </si>
   <si>
     <t>dpv:ContractualClauseFulfilmentStatus</t>
   </si>
   <si>
-    <t>ContractualClausePartiallyFulfiled</t>
-  </si>
-  <si>
-    <t>Contractual Clause Partially Fulfiled</t>
-  </si>
-  <si>
-    <t>Status indicating some of the terms of the contractual clause have been fulfiled, and others have not yet been fulfiled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Arthit Suriyawongkul</t>
+  </si>
+  <si>
+    <t>ContractualClausePartiallyFulfilled</t>
+  </si>
+  <si>
+    <t>Contractual Clause Partially Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating some of the terms of the contractual clause have been fulfilled, and others have not yet been fulfilled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
   </si>
   <si>
     <t>ContractualClauseViolated</t>
@@ -1210,13 +1222,13 @@
     <t>Status indicating the terms of the contractual clause have been violated</t>
   </si>
   <si>
-    <t>ContractualClauseNotFulfiled</t>
-  </si>
-  <si>
-    <t>Contractual Clause Unfulfiled</t>
-  </si>
-  <si>
-    <t>Status indicating the terms of the contractual clause have not yet been fulfiled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
+    <t>ContractualClauseNotFulfilled</t>
+  </si>
+  <si>
+    <t>Contractual Clause Unfulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating the terms of the contractual clause have not yet been fulfilled in a manner that does not constitute a violation i.e. there is still an opportunity to complete them</t>
   </si>
   <si>
     <t>ContractControl</t>
@@ -1345,7 +1357,7 @@
     <t>dct:modified</t>
   </si>
   <si>
-    <t>Indicates the date when the contract was modified e.g. as part of the negotation process</t>
+    <t>Indicates the date when the contract was modified e.g. as part of the negotiation process</t>
   </si>
   <si>
     <t>dct:dateAccepted</t>
@@ -1399,7 +1411,7 @@
     <t>provenance</t>
   </si>
   <si>
-    <t>Indicates the provenance of the contract e.g. previous versions in a negotation process</t>
+    <t>Indicates the provenance of the contract e.g. previous versions in a negotiation process</t>
   </si>
   <si>
     <t>The PROV ontology can be useful to represent provenance information associated with activities and artefacts</t>
@@ -1573,7 +1585,7 @@
     <t>Legal ObligationOngoing</t>
   </si>
   <si>
-    <t>Status where the legal obligation is being fulfiled</t>
+    <t>Status where the legal obligation is being fulfilled</t>
   </si>
   <si>
     <t>LegalObligationPending</t>
@@ -2107,7 +2119,7 @@
     <t>The state where consent has been deemed to be invalid</t>
   </si>
   <si>
-    <t xml:space="preserve">An example of this state is where an investigating authority or a court finds the collected consent did not meet requirements, and 'invalidates' both prior and future uses of it to carry out processing </t>
+    <t>An example of this state is where an investigating authority or a court finds the collected consent did not meet requirements, and 'invalidates' both prior and future uses of it to carry out processing</t>
   </si>
   <si>
     <r>
@@ -2319,7 +2331,7 @@
     <t>Specific a control associated with consent</t>
   </si>
   <si>
-    <t xml:space="preserve">Deprecated </t>
+    <t>Deprecated</t>
   </si>
   <si>
     <t>hasExpiry</t>
@@ -4178,16 +4190,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -4205,10 +4217,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4226,16 +4238,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>25</v>
@@ -4244,7 +4256,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="20">
@@ -4255,10 +4267,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -4276,16 +4288,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>25</v>
@@ -4294,7 +4306,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="20">
@@ -4305,10 +4317,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -4326,16 +4338,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>597</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>25</v>
@@ -4344,7 +4356,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20">
@@ -4355,10 +4367,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4376,16 +4388,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -4394,7 +4406,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="20">
@@ -4405,10 +4417,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4508,14 +4520,14 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Status</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>198</v>
@@ -4527,10 +4539,10 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K2" s="20">
         <v>44734.0</v>
@@ -4540,10 +4552,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -4561,26 +4573,26 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K3" s="20">
         <v>44734.0</v>
@@ -4590,10 +4602,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -4611,26 +4623,26 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K4" s="20">
         <v>44734.0</v>
@@ -4640,10 +4652,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -4661,29 +4673,29 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" ref="B5:B6" si="1">CONCATENATE(LEFT(A5,7)," ",RIGHT(A5,LEN(A5) - 7))</f>
         <v>Consent Unknown</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K5" s="20">
         <v>44734.0</v>
@@ -4693,10 +4705,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -4714,29 +4726,29 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>621</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K6" s="20">
         <v>44734.0</v>
@@ -4746,10 +4758,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -4767,28 +4779,28 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K7" s="20">
         <v>44734.0</v>
@@ -4798,10 +4810,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -4819,28 +4831,28 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K8" s="20">
         <v>44734.0</v>
@@ -4850,10 +4862,10 @@
         <v>21</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4871,28 +4883,28 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K9" s="20">
         <v>44734.0</v>
@@ -4902,10 +4914,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4923,28 +4935,28 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="K10" s="20">
         <v>44734.0</v>
@@ -4954,10 +4966,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4975,28 +4987,28 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="17" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K11" s="20">
         <v>44734.0</v>
@@ -5006,10 +5018,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -5027,28 +5039,28 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K12" s="20">
         <v>44734.0</v>
@@ -5058,10 +5070,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -5079,28 +5091,28 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K13" s="20">
         <v>44734.0</v>
@@ -5110,10 +5122,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -5131,28 +5143,28 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="K14" s="20">
         <v>44734.0</v>
@@ -5162,10 +5174,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -5286,17 +5298,17 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B2" s="17" t="str">
         <f>CONCATENATE(LEFT(A2,7)," ",RIGHT(A2,LEN(A2) - 7))</f>
         <v>Consent Control</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>199</v>
@@ -5331,16 +5343,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>199</v>
@@ -5349,7 +5361,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="17" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="20">
@@ -5377,16 +5389,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>199</v>
@@ -5395,7 +5407,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="20">
@@ -5423,16 +5435,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>199</v>
@@ -5441,7 +5453,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="20">
@@ -5469,16 +5481,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>199</v>
@@ -5487,7 +5499,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="20">
@@ -5515,16 +5527,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>199</v>
@@ -5533,7 +5545,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="23" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="20">
@@ -5561,16 +5573,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>199</v>
@@ -5579,7 +5591,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="23" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="20">
@@ -5672,13 +5684,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -5693,7 +5705,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -5710,19 +5722,19 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -5737,10 +5749,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -5758,19 +5770,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K3" s="20">
         <v>45423.0</v>
@@ -5785,22 +5797,22 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K8" s="20">
         <v>43560.0</v>
@@ -5809,30 +5821,30 @@
         <v>44899.0</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>712</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>708</v>
       </c>
       <c r="K9" s="20">
         <v>43560.0</v>
@@ -5841,30 +5853,30 @@
         <v>44899.0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K10" s="20">
         <v>43560.0</v>
@@ -5873,27 +5885,27 @@
         <v>44899.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K11" s="20">
         <v>43560.0</v>
@@ -5902,27 +5914,27 @@
         <v>44899.0</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="K12" s="20">
         <v>43560.0</v>
@@ -5931,27 +5943,27 @@
         <v>44899.0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K13" s="20">
         <v>43560.0</v>
@@ -5960,27 +5972,27 @@
         <v>44899.0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>734</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>729</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>730</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="K14" s="20">
         <v>43560.0</v>
@@ -5989,30 +6001,30 @@
         <v>44899.0</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K15" s="20">
         <v>43560.0</v>
@@ -6021,30 +6033,30 @@
         <v>44899.0</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K16" s="20">
         <v>43560.0</v>
@@ -6053,27 +6065,27 @@
         <v>44899.0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="K17" s="20">
         <v>43560.0</v>
@@ -6082,13 +6094,13 @@
         <v>44899.0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
@@ -6106,16 +6118,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="K18" s="20">
         <v>43560.0</v>
@@ -6124,13 +6136,13 @@
         <v>44899.0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
@@ -6148,16 +6160,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K19" s="20">
         <v>43560.0</v>
@@ -6166,30 +6178,30 @@
         <v>44899.0</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="K20" s="20">
         <v>43560.0</v>
@@ -6198,13 +6210,13 @@
         <v>44899.0</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -10230,152 +10242,95 @@
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>250</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>344</v>
+      </c>
       <c r="E38" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+        <v>345</v>
+      </c>
       <c r="K38" s="20">
         <v>45666.0</v>
       </c>
-      <c r="L38" s="21"/>
+      <c r="L38" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M38" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
       <c r="K39" s="20">
         <v>45666.0</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M39" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>352</v>
+      </c>
       <c r="E40" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+        <v>345</v>
+      </c>
       <c r="K40" s="20">
         <v>45666.0</v>
       </c>
-      <c r="L40" s="21"/>
+      <c r="L40" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M40" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="21"/>
@@ -10486,13 +10441,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -10531,17 +10486,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10574,17 +10529,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -10617,17 +10572,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -10660,17 +10615,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -10703,17 +10658,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -10746,17 +10701,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -10789,17 +10744,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -10832,17 +10787,17 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -10888,13 +10843,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>203</v>
@@ -10914,7 +10869,9 @@
       <c r="M12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -10933,103 +10890,69 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>390</v>
+      </c>
       <c r="E13" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+        <v>391</v>
+      </c>
       <c r="K13" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
       <c r="K14" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -11043,7 +10966,9 @@
       <c r="M15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -11062,46 +10987,29 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>401</v>
+      </c>
       <c r="E16" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+        <v>391</v>
+      </c>
       <c r="K16" s="20">
         <v>45531.0</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20">
+        <v>45875.0</v>
+      </c>
       <c r="M16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>392</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A11:AF16">
@@ -11191,16 +11099,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>199</v>
@@ -11236,16 +11144,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>199</v>
@@ -11281,16 +11189,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>199</v>
@@ -11326,16 +11234,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>199</v>
@@ -11371,16 +11279,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>199</v>
@@ -11416,16 +11324,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>199</v>
@@ -11501,13 +11409,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -11522,7 +11430,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -11539,55 +11447,55 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E2" s="18"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E3" s="18"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E5" s="18"/>
       <c r="I5" s="17"/>
@@ -11595,150 +11503,150 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E7" s="23"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E9" s="23"/>
       <c r="I9" s="17" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>34</v>
@@ -11747,7 +11655,7 @@
         <v>203</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -11779,22 +11687,22 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>203</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K18" s="20">
         <v>45531.0</v>
@@ -11806,19 +11714,19 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K19" s="20">
         <v>45531.0</v>
@@ -11830,19 +11738,19 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F20" s="21"/>
       <c r="K20" s="20">
@@ -11853,24 +11761,24 @@
         <v>21</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K21" s="20">
         <v>45643.0</v>
@@ -11967,13 +11875,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>198</v>
@@ -12015,17 +11923,17 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -12061,17 +11969,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -12107,17 +12015,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -12153,17 +12061,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -12199,13 +12107,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>198</v>
@@ -12247,17 +12155,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -12293,17 +12201,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -12339,17 +12247,17 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -12385,13 +12293,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>198</v>
@@ -12433,16 +12341,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K12" s="20">
         <v>45531.0</v>
@@ -12473,17 +12381,17 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -12519,17 +12427,17 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -12565,13 +12473,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>198</v>
@@ -12613,17 +12521,17 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -12659,17 +12567,17 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -12705,17 +12613,17 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -12751,17 +12659,17 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -12797,13 +12705,13 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>198</v>
@@ -12845,17 +12753,17 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -12891,17 +12799,17 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -12937,17 +12845,17 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -12983,17 +12891,17 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -13090,13 +12998,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>6</v>
@@ -13111,7 +13019,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>11</v>
@@ -13128,13 +13036,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>18</v>
@@ -13144,7 +13052,7 @@
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -13160,7 +13068,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>22</v>
@@ -13185,19 +13093,19 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -13212,10 +13120,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -13237,13 +13145,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>18</v>
@@ -13262,10 +13170,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -13287,13 +13195,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -13312,10 +13220,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
